--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_026.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_026.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11.70068658329569</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21.06770535936527</v>
       </c>
       <c r="E2" t="n">
-        <v>12.95574189286956</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14.52013728096289</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>68.88661141717083</v>
+        <v>31.69381457782727</v>
       </c>
       <c r="I2" t="n">
-        <v>83.08509184664429</v>
+        <v>37.1338000038848</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42610658597285</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.56445027741864</v>
+        <v>63.19834612697476</v>
       </c>
       <c r="L2" t="n">
-        <v>155.9843456770431</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19.25105732627875</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>30.14196587655311</v>
       </c>
       <c r="O2" t="n">
-        <v>195.2201978570869</v>
+        <v>20.95436716947384</v>
       </c>
       <c r="P2" t="n">
-        <v>75.87015945308723</v>
+        <v>52.56791304499976</v>
       </c>
       <c r="Q2" t="n">
-        <v>49.13003743700373</v>
+        <v>111.6802091924585</v>
       </c>
       <c r="R2" t="n">
-        <v>75.33949735223877</v>
+        <v>59.37564382645915</v>
       </c>
       <c r="S2" t="n">
-        <v>142.5884734589751</v>
+        <v>30.40379942805544</v>
       </c>
       <c r="T2" t="n">
-        <v>80.20745250841827</v>
+        <v>62.86051847251294</v>
       </c>
       <c r="U2" t="n">
-        <v>42.39148671471877</v>
+        <v>41.66977261173025</v>
       </c>
       <c r="V2" t="n">
-        <v>51.62989057386696</v>
+        <v>31.13698371881104</v>
       </c>
       <c r="W2" t="n">
-        <v>48.30482510354069</v>
+        <v>97.20217498670274</v>
       </c>
       <c r="X2" t="n">
-        <v>73.26588732387549</v>
+        <v>46.49014621058581</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.75946019176141</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>83.00518432297545</v>
+        <v>36.44746953333123</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.19499713099021</v>
+        <v>111.0657502099867</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1664071002277</v>
+        <v>186.4647536184189</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.79734377358658</v>
+        <v>84.93709166554487</v>
       </c>
       <c r="AD2" t="n">
-        <v>101.2323901274036</v>
+        <v>132.0928171653954</v>
       </c>
       <c r="AE2" t="n">
-        <v>59.75498049431421</v>
+        <v>107.6467802109111</v>
       </c>
       <c r="AF2" t="n">
-        <v>148.409579437466</v>
+        <v>42.44755600251113</v>
       </c>
       <c r="AG2" t="n">
-        <v>68.91543772714758</v>
+        <v>47.38387760593761</v>
       </c>
       <c r="AH2" t="n">
-        <v>73.48120244495551</v>
+        <v>106.487266468339</v>
       </c>
       <c r="AI2" t="n">
-        <v>96.83194948691957</v>
+        <v>46.03256504014847</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60.10950307972129</v>
+        <v>110.6073433319983</v>
       </c>
       <c r="AK2" t="n">
-        <v>70.40673596139419</v>
+        <v>33.9455738705304</v>
       </c>
       <c r="AL2" t="n">
-        <v>66.22261663678717</v>
+        <v>67.77219187913686</v>
       </c>
       <c r="AM2" t="n">
-        <v>35.96664657051902</v>
+        <v>22.23790146686842</v>
       </c>
       <c r="AN2" t="n">
-        <v>49.13602504738468</v>
+        <v>24.11360487751936</v>
       </c>
       <c r="AO2" t="n">
-        <v>25.80597806669691</v>
+        <v>24.33666727621281</v>
       </c>
       <c r="AP2" t="n">
-        <v>27.24649215395618</v>
+        <v>64.62562327291431</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34.73383478971557</v>
+        <v>30.23227394766337</v>
       </c>
       <c r="AR2" t="n">
-        <v>18.49768089003518</v>
+        <v>35.00963409763234</v>
       </c>
       <c r="AS2" t="n">
-        <v>21.98738813731081</v>
+        <v>47.88237306384497</v>
       </c>
       <c r="AT2" t="n">
-        <v>15.02945099657699</v>
+        <v>20.98235595734645</v>
       </c>
       <c r="AU2" t="n">
-        <v>17.6381251053056</v>
+        <v>21.19686144358626</v>
       </c>
       <c r="AV2" t="n">
-        <v>14.05257356792009</v>
+        <v>35.84708731355799</v>
       </c>
       <c r="AW2" t="n">
-        <v>24.55528177424354</v>
+        <v>33.12086959263953</v>
       </c>
       <c r="AX2" t="n">
-        <v>24.55172144316327</v>
+        <v>35.658163058258</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5.323106573930406</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.566819570124618</v>
       </c>
       <c r="E3" t="n">
-        <v>3.353038266846127</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.043309078168176</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.331280939545455</v>
       </c>
       <c r="H3" t="n">
-        <v>2.835171278459165</v>
+        <v>3.995045686424138</v>
       </c>
       <c r="I3" t="n">
-        <v>1.700355525513831</v>
+        <v>4.061408477501324</v>
       </c>
       <c r="J3" t="n">
-        <v>5.659558266059165</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.384418416775889</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.006303799751265</v>
+        <v>2.006518960954287</v>
       </c>
       <c r="M3" t="n">
-        <v>4.085174497188245</v>
+        <v>2.58927200247466</v>
       </c>
       <c r="N3" t="n">
-        <v>7.010145055715933</v>
+        <v>3.616288149305007</v>
       </c>
       <c r="O3" t="n">
-        <v>2.019419702652435</v>
+        <v>3.037333855977231</v>
       </c>
       <c r="P3" t="n">
-        <v>3.597018275002087</v>
+        <v>5.788546617434754</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.795547668942409</v>
+        <v>5.153477566620862</v>
       </c>
       <c r="R3" t="n">
-        <v>4.462313567201395</v>
+        <v>4.44733954110806</v>
       </c>
       <c r="S3" t="n">
-        <v>5.61563794449407</v>
+        <v>6.334527128581277</v>
       </c>
       <c r="T3" t="n">
-        <v>6.201663882225508</v>
+        <v>5.223477594740102</v>
       </c>
       <c r="U3" t="n">
-        <v>5.494216136451989</v>
+        <v>2.79330913424945</v>
       </c>
       <c r="V3" t="n">
-        <v>5.0112196092288</v>
+        <v>4.717409602716529</v>
       </c>
       <c r="W3" t="n">
-        <v>4.414615686873915</v>
+        <v>3.137831376940002</v>
       </c>
       <c r="X3" t="n">
-        <v>7.046730337225607</v>
+        <v>3.087286981882571</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.201896014293057</v>
+        <v>4.378115945319331</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.753409343591191</v>
+        <v>7.073251410336481</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.854606011734904</v>
+        <v>9.278801590659993</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.942853023296222</v>
+        <v>5.583780377617961</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.504764445757885</v>
+        <v>6.106951951836722</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.848820108296073</v>
+        <v>6.893300538839426</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.888195498663694</v>
+        <v>6.821178327643158</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.774124439215469</v>
+        <v>5.227283432076418</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.78891008450656</v>
+        <v>3.827536743906575</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.884150196060762</v>
+        <v>9.65693337174763</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.563720957065907</v>
+        <v>2.886007190413304</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.514946966121911</v>
+        <v>5.290024772373202</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.194493952453235</v>
+        <v>6.436279476269089</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.864806998400407</v>
+        <v>3.848372689253022</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.318734538101857</v>
+        <v>2.085500547889616</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.273572400470825</v>
+        <v>2.519259149463987</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.983912287858772</v>
+        <v>3.949509843725654</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.292127707704723</v>
+        <v>2.27566287705593</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.095061589146487</v>
+        <v>3.685881305103349</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.266301645854734</v>
+        <v>13.23896378603799</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.562732979980364</v>
+        <v>5.860890011281697</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.508616883525642</v>
+        <v>2.999765256266043</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.456897542363685</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.310864672422952</v>
+        <v>2.027135937160708</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.913309033010769</v>
+        <v>3.076150323773336</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.411905365476121</v>
+        <v>3.641237661294034</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.803649621830298</v>
+        <v>6.25764057967934</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.21631968928031</v>
+        <v>30.8229905970995</v>
       </c>
       <c r="F4" t="n">
-        <v>25.15339736919596</v>
+        <v>97.64928458759229</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.441021471591357</v>
       </c>
       <c r="H4" t="n">
-        <v>6.992015325813677</v>
+        <v>10.72988656723681</v>
       </c>
       <c r="I4" t="n">
-        <v>30.42399477900933</v>
+        <v>66.65155371597623</v>
       </c>
       <c r="J4" t="n">
-        <v>111.7646119619028</v>
+        <v>26.99247234063019</v>
       </c>
       <c r="K4" t="n">
-        <v>3.093960790450033</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>50.88529766066394</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.0912272579158</v>
+        <v>142.1129812999978</v>
       </c>
       <c r="N4" t="n">
-        <v>172.011769322808</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>24.80413556013589</v>
+        <v>72.98154374343332</v>
       </c>
       <c r="P4" t="n">
-        <v>28.00565323808961</v>
+        <v>60.10350479355206</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.71745087249401</v>
+        <v>56.0343736648683</v>
       </c>
       <c r="R4" t="n">
-        <v>46.72630456646355</v>
+        <v>38.20159266662921</v>
       </c>
       <c r="S4" t="n">
-        <v>73.20677351154505</v>
+        <v>52.32142798026356</v>
       </c>
       <c r="T4" t="n">
-        <v>61.66221491159605</v>
+        <v>133.2741281434278</v>
       </c>
       <c r="U4" t="n">
-        <v>18.74383735105234</v>
+        <v>34.42364771977053</v>
       </c>
       <c r="V4" t="n">
-        <v>83.7340699947051</v>
+        <v>109.1312467431872</v>
       </c>
       <c r="W4" t="n">
-        <v>63.84381796814933</v>
+        <v>60.87038995070385</v>
       </c>
       <c r="X4" t="n">
-        <v>40.60641260661144</v>
+        <v>36.94776350438822</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.18152356560195</v>
+        <v>21.20679930671358</v>
       </c>
       <c r="Z4" t="n">
-        <v>59.41702423028569</v>
+        <v>217.868402944683</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.80011828056848</v>
+        <v>25.12369687363761</v>
       </c>
       <c r="AB4" t="n">
-        <v>38.18964280464702</v>
+        <v>55.55387416538737</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.99084380907287</v>
+        <v>64.48222663395453</v>
       </c>
       <c r="AD4" t="n">
-        <v>55.74054276913583</v>
+        <v>17.85088367985474</v>
       </c>
       <c r="AE4" t="n">
-        <v>20.447338825041</v>
+        <v>90.30623890348213</v>
       </c>
       <c r="AF4" t="n">
-        <v>76.98826316367034</v>
+        <v>48.00964532095698</v>
       </c>
       <c r="AG4" t="n">
-        <v>32.78548963864561</v>
+        <v>58.21869995545953</v>
       </c>
       <c r="AH4" t="n">
-        <v>39.58451991879312</v>
+        <v>54.34033104577163</v>
       </c>
       <c r="AI4" t="n">
-        <v>31.9254133768916</v>
+        <v>84.23221312516139</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55.64497749678873</v>
+        <v>33.83009517304485</v>
       </c>
       <c r="AK4" t="n">
-        <v>31.03782193456663</v>
+        <v>42.63919862358781</v>
       </c>
       <c r="AL4" t="n">
-        <v>21.18951937185318</v>
+        <v>40.52238028972747</v>
       </c>
       <c r="AM4" t="n">
-        <v>70.75365749607728</v>
+        <v>18.94880075526322</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.904625190369498</v>
+        <v>7.015740874484903</v>
       </c>
       <c r="AO4" t="n">
-        <v>21.96370449922583</v>
+        <v>12.68222164248005</v>
       </c>
       <c r="AP4" t="n">
-        <v>11.2369028141313</v>
+        <v>5.784258922207961</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16.50403012294042</v>
+        <v>12.87761111589743</v>
       </c>
       <c r="AR4" t="n">
-        <v>13.95243220207744</v>
+        <v>10.06340511000237</v>
       </c>
       <c r="AS4" t="n">
-        <v>26.37769099659275</v>
+        <v>19.86829787545158</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.245018487791606</v>
+        <v>25.65281954774922</v>
       </c>
       <c r="AU4" t="n">
-        <v>14.47979688709293</v>
+        <v>8.224382821883122</v>
       </c>
       <c r="AV4" t="n">
-        <v>19.29000954195864</v>
+        <v>25.35298067904963</v>
       </c>
       <c r="AW4" t="n">
-        <v>12.94793988916202</v>
+        <v>5.93327728844185</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.44052208114782</v>
+        <v>20.96220106591639</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>303.5874372369387</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>14.23487377269181</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.885273932356167</v>
       </c>
       <c r="F5" t="n">
-        <v>23.3737591882192</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20.36764917708955</v>
+        <v>6.361149819427258</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>20.21230858891374</v>
       </c>
       <c r="J5" t="n">
-        <v>89.13610347536874</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>235.6638639194947</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>57.00852970818198</v>
+        <v>25.00706151692398</v>
       </c>
       <c r="M5" t="n">
-        <v>303.3868520064831</v>
+        <v>65.49517450547862</v>
       </c>
       <c r="N5" t="n">
-        <v>10.86478603917627</v>
+        <v>29.60502652418078</v>
       </c>
       <c r="O5" t="n">
-        <v>18.13443944642243</v>
+        <v>36.66220259202308</v>
       </c>
       <c r="P5" t="n">
-        <v>2.0336768898153</v>
+        <v>80.72706436893641</v>
       </c>
       <c r="Q5" t="n">
-        <v>78.43522012824488</v>
+        <v>62.30231477867294</v>
       </c>
       <c r="R5" t="n">
-        <v>64.87463189478592</v>
+        <v>71.94165591071564</v>
       </c>
       <c r="S5" t="n">
-        <v>65.61777786941417</v>
+        <v>33.06387808990667</v>
       </c>
       <c r="T5" t="n">
-        <v>20.30004760139978</v>
+        <v>6.058061281589369</v>
       </c>
       <c r="U5" t="n">
-        <v>41.99871062671549</v>
+        <v>39.15837996314292</v>
       </c>
       <c r="V5" t="n">
-        <v>68.67591346051152</v>
+        <v>60.72434169665495</v>
       </c>
       <c r="W5" t="n">
-        <v>27.86228124419175</v>
+        <v>55.78757564866756</v>
       </c>
       <c r="X5" t="n">
-        <v>47.93067922576647</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.84997780877617</v>
+        <v>6.796876587961393</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.167848936633742</v>
+        <v>9.135023259271872</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.99283601136983</v>
+        <v>65.33605431951948</v>
       </c>
       <c r="AB5" t="n">
-        <v>46.8570490470321</v>
+        <v>40.43379999585034</v>
       </c>
       <c r="AC5" t="n">
-        <v>25.83575808016521</v>
+        <v>35.07378572621145</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.95282019458094</v>
+        <v>77.35790623584093</v>
       </c>
       <c r="AE5" t="n">
-        <v>58.47329092502692</v>
+        <v>31.17368148529495</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.73632119757936</v>
+        <v>87.71981808802188</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.57723931918119</v>
+        <v>33.74852575883269</v>
       </c>
       <c r="AH5" t="n">
-        <v>11.63040997030004</v>
+        <v>33.35532684146823</v>
       </c>
       <c r="AI5" t="n">
-        <v>43.60743003182026</v>
+        <v>42.78126290633365</v>
       </c>
       <c r="AJ5" t="n">
-        <v>43.36617971662386</v>
+        <v>37.58276248261284</v>
       </c>
       <c r="AK5" t="n">
-        <v>174.1800170301356</v>
+        <v>46.18979982237543</v>
       </c>
       <c r="AL5" t="n">
-        <v>25.81697671796747</v>
+        <v>44.6884963633373</v>
       </c>
       <c r="AM5" t="n">
-        <v>29.15570897376803</v>
+        <v>20.21289394689045</v>
       </c>
       <c r="AN5" t="n">
-        <v>41.07055979734879</v>
+        <v>50.4814223046271</v>
       </c>
       <c r="AO5" t="n">
-        <v>30.98386306766463</v>
+        <v>20.82051092736015</v>
       </c>
       <c r="AP5" t="n">
-        <v>26.98351018303149</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24.02896347142219</v>
+        <v>29.85741458429183</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.481895557845799</v>
+        <v>27.97314057650065</v>
       </c>
       <c r="AS5" t="n">
-        <v>28.95819007223707</v>
+        <v>9.541623710012574</v>
       </c>
       <c r="AT5" t="n">
-        <v>21.10711878737169</v>
+        <v>37.82526095344732</v>
       </c>
       <c r="AU5" t="n">
-        <v>24.37979341239305</v>
+        <v>29.68453809289609</v>
       </c>
       <c r="AV5" t="n">
-        <v>17.17224182597982</v>
+        <v>19.92073360651643</v>
       </c>
       <c r="AW5" t="n">
-        <v>16.03402136595857</v>
+        <v>18.42101647342112</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.275435095405294</v>
+        <v>25.8224681651579</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.517385768566928</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.941475168963613</v>
+        <v>1.728761214688284</v>
       </c>
       <c r="E6" t="n">
-        <v>12.75811947194461</v>
+        <v>14.01636161937676</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.447661416748712</v>
+        <v>10.79024714984864</v>
       </c>
       <c r="H6" t="n">
-        <v>13.72333676128184</v>
+        <v>24.43238688752565</v>
       </c>
       <c r="I6" t="n">
-        <v>25.30063581364807</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.54578466409871</v>
+        <v>39.66182724136541</v>
       </c>
       <c r="K6" t="n">
-        <v>8.347336456342115</v>
+        <v>9.672894037536263</v>
       </c>
       <c r="L6" t="n">
-        <v>44.96528388273811</v>
+        <v>5.530160245235439</v>
       </c>
       <c r="M6" t="n">
-        <v>38.02186542391438</v>
+        <v>4.964825257466475</v>
       </c>
       <c r="N6" t="n">
-        <v>30.17004782638081</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>15.94853183231567</v>
+        <v>34.79886958138264</v>
       </c>
       <c r="P6" t="n">
-        <v>18.98477864897407</v>
+        <v>26.90709105495371</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.35946195942113</v>
+        <v>11.92838248870107</v>
       </c>
       <c r="R6" t="n">
-        <v>41.50392836486573</v>
+        <v>23.24482526502485</v>
       </c>
       <c r="S6" t="n">
-        <v>10.87698302584639</v>
+        <v>28.03452366443136</v>
       </c>
       <c r="T6" t="n">
-        <v>23.21158641293941</v>
+        <v>28.49780905422003</v>
       </c>
       <c r="U6" t="n">
-        <v>18.21959221026349</v>
+        <v>12.00407784466889</v>
       </c>
       <c r="V6" t="n">
-        <v>22.14496726775995</v>
+        <v>21.69542511383892</v>
       </c>
       <c r="W6" t="n">
-        <v>17.08362885904844</v>
+        <v>1.540748388571966</v>
       </c>
       <c r="X6" t="n">
-        <v>32.91044914646874</v>
+        <v>53.07246649729637</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.62634215097895</v>
+        <v>16.09363860942644</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.51735777164657</v>
+        <v>29.14487359894755</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.45830479965544</v>
+        <v>3.347536757721038</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>5.267789846788405</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.94069236702782</v>
+        <v>13.79471322472657</v>
       </c>
       <c r="AD6" t="n">
-        <v>20.73889978026772</v>
+        <v>11.95552230119255</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.940950503313714</v>
+        <v>15.84059513452187</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.756940912632968</v>
+        <v>8.225618215648701</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.605631664226122</v>
+        <v>15.77023011789524</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.305772768472469</v>
+        <v>10.5188534470308</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.393546172033785</v>
+        <v>6.89358004304921</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.037118033</v>
+        <v>13.11128645164551</v>
       </c>
       <c r="AK6" t="n">
-        <v>11.45330708178556</v>
+        <v>23.66723715852736</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.375366841609456</v>
+        <v>10.00006305402207</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.853007092468188</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.752295590080275</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.341289047312805</v>
+        <v>2.504607391581898</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.13548568554989</v>
+        <v>5.782189383606366</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5.169598311515975</v>
+        <v>4.645286520966698</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.051557640756895</v>
+        <v>4.641918565555132</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.29482783443279</v>
+        <v>2.076081279040267</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>7.640739300659843</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.660981313072134</v>
+        <v>0.2567843000896919</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.271338553279681</v>
+        <v>1.292665262499259</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.122121609152415</v>
+        <v>1.600911623516128</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.158444500160501</v>
+        <v>4.306538421601293</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>23.31505335396729</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.63737000130866</v>
+        <v>29.27976039548236</v>
       </c>
       <c r="F7" t="n">
-        <v>8.72870730251881</v>
+        <v>77.24513234096133</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.52178356764957</v>
+        <v>45.88961537726595</v>
       </c>
       <c r="I7" t="n">
-        <v>29.51702698219857</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.7270883629211</v>
+        <v>56.41957763611408</v>
       </c>
       <c r="K7" t="n">
-        <v>3.223676694504122</v>
+        <v>72.34329198629581</v>
       </c>
       <c r="L7" t="n">
-        <v>8.830581199174656</v>
+        <v>2.39739171671416</v>
       </c>
       <c r="M7" t="n">
-        <v>53.72133040196816</v>
+        <v>18.44324048056318</v>
       </c>
       <c r="N7" t="n">
-        <v>82.98221658779147</v>
+        <v>21.03915183762556</v>
       </c>
       <c r="O7" t="n">
-        <v>49.80633575759281</v>
+        <v>28.32538831356057</v>
       </c>
       <c r="P7" t="n">
-        <v>21.62680817221104</v>
+        <v>18.00589583152078</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.701505414044978</v>
+        <v>23.65790226132559</v>
       </c>
       <c r="R7" t="n">
-        <v>107.4213450064868</v>
+        <v>27.90637021647483</v>
       </c>
       <c r="S7" t="n">
-        <v>6.483649925640828</v>
+        <v>14.21167126630221</v>
       </c>
       <c r="T7" t="n">
-        <v>32.23137778016337</v>
+        <v>35.64492040183654</v>
       </c>
       <c r="U7" t="n">
-        <v>30.18826065260183</v>
+        <v>4.715750813035128</v>
       </c>
       <c r="V7" t="n">
-        <v>51.20047805783784</v>
+        <v>30.61921473130377</v>
       </c>
       <c r="W7" t="n">
-        <v>26.73094927371737</v>
+        <v>143.7117889853536</v>
       </c>
       <c r="X7" t="n">
-        <v>35.08595637558552</v>
+        <v>29.00421030966742</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2065187652458116</v>
+        <v>54.57648729431334</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.06386155448189</v>
+        <v>1.460461659971239</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.610791220968516</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.469185826634675</v>
+        <v>8.446901525431908</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.00083660171289</v>
+        <v>15.87563458495939</v>
       </c>
       <c r="AD7" t="n">
-        <v>33.75649326815788</v>
+        <v>14.95593321516944</v>
       </c>
       <c r="AE7" t="n">
-        <v>12.43466382885177</v>
+        <v>22.93933924177887</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.478815482144104</v>
+        <v>19.18536973288585</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.56954161326604</v>
+        <v>30.69000630114938</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.651152572305698</v>
+        <v>1.68933421868722</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.587480174362328</v>
+        <v>8.9466374520541</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.554619202480565</v>
+        <v>33.7447782495598</v>
       </c>
       <c r="AK7" t="n">
-        <v>20.94754826245498</v>
+        <v>8.070825650591551</v>
       </c>
       <c r="AL7" t="n">
-        <v>37.13418805136047</v>
+        <v>7.256107852660035</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.724878531211362</v>
+        <v>7.425205041563755</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.636796742163732</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.959610157023036</v>
+        <v>0.1188884485473191</v>
       </c>
       <c r="AP7" t="n">
-        <v>7.527151596444186</v>
+        <v>0.1788673706260961</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.235308623806142</v>
+        <v>2.226230203001559</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.86490000040755</v>
+        <v>2.985036805345651</v>
       </c>
       <c r="AS7" t="n">
-        <v>10.45792901440956</v>
+        <v>9.954309380794314</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.252720610924188</v>
+        <v>4.248420890624995</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>15.32419287016889</v>
       </c>
       <c r="AV7" t="n">
-        <v>10.0148109360764</v>
+        <v>9.019960116594296</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.330936336289033</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>9.876558481858565</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>20.01778633214398</v>
+        <v>89.36114214124575</v>
       </c>
       <c r="D8" t="n">
-        <v>7.831760502015589</v>
+        <v>78.09580165296408</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.937552995533981</v>
       </c>
       <c r="F8" t="n">
-        <v>15.62843007618225</v>
+        <v>52.37718121413484</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>14.54686275440375</v>
       </c>
       <c r="H8" t="n">
-        <v>38.78956369306522</v>
+        <v>18.53126679270168</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2586071393416676</v>
+        <v>177.3449364452968</v>
       </c>
       <c r="J8" t="n">
-        <v>2.059265043379163</v>
+        <v>500.7945830724807</v>
       </c>
       <c r="K8" t="n">
-        <v>42.552095435941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>17.62224880997324</v>
+        <v>26.78743685263309</v>
       </c>
       <c r="M8" t="n">
-        <v>73.2376043156407</v>
+        <v>97.09483726931704</v>
       </c>
       <c r="N8" t="n">
-        <v>38.08655378409744</v>
+        <v>22.24350264886924</v>
       </c>
       <c r="O8" t="n">
-        <v>131.1175147764181</v>
+        <v>41.96293003192309</v>
       </c>
       <c r="P8" t="n">
-        <v>30.14367737058076</v>
+        <v>90.32211105574534</v>
       </c>
       <c r="Q8" t="n">
-        <v>150.7354502643819</v>
+        <v>73.73498179267351</v>
       </c>
       <c r="R8" t="n">
-        <v>53.04984591578868</v>
+        <v>67.54533038325745</v>
       </c>
       <c r="S8" t="n">
-        <v>38.1335403472464</v>
+        <v>32.62263210859626</v>
       </c>
       <c r="T8" t="n">
-        <v>46.70992423447488</v>
+        <v>61.65354494660443</v>
       </c>
       <c r="U8" t="n">
-        <v>29.0721599692345</v>
+        <v>56.63089929851711</v>
       </c>
       <c r="V8" t="n">
-        <v>116.3578265193749</v>
+        <v>93.10068644674109</v>
       </c>
       <c r="W8" t="n">
-        <v>126.1358094827104</v>
+        <v>102.1067875834757</v>
       </c>
       <c r="X8" t="n">
-        <v>69.84857810310211</v>
+        <v>162.2720377573235</v>
       </c>
       <c r="Y8" t="n">
-        <v>76.00887547492573</v>
+        <v>70.43078252864493</v>
       </c>
       <c r="Z8" t="n">
-        <v>44.34257316670136</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.27103135370291</v>
+        <v>174.7778127758554</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.6000333881327</v>
+        <v>168.1363634537406</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.5623800584471</v>
+        <v>46.91120694762279</v>
       </c>
       <c r="AD8" t="n">
-        <v>178.2743868616743</v>
+        <v>59.00743788056213</v>
       </c>
       <c r="AE8" t="n">
-        <v>71.65921784940207</v>
+        <v>66.41592147688303</v>
       </c>
       <c r="AF8" t="n">
-        <v>99.95034865501397</v>
+        <v>143.614608145857</v>
       </c>
       <c r="AG8" t="n">
-        <v>88.03264675966739</v>
+        <v>105.5111950659213</v>
       </c>
       <c r="AH8" t="n">
-        <v>122.6695898852072</v>
+        <v>68.21915058558602</v>
       </c>
       <c r="AI8" t="n">
-        <v>122.5341298672492</v>
+        <v>74.60866496536447</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55.47294796607042</v>
+        <v>59.08719811828352</v>
       </c>
       <c r="AK8" t="n">
-        <v>67.00250079653456</v>
+        <v>101.9893358330168</v>
       </c>
       <c r="AL8" t="n">
-        <v>44.79070844388328</v>
+        <v>94.63839222676975</v>
       </c>
       <c r="AM8" t="n">
-        <v>36.91156293940168</v>
+        <v>26.12870546130387</v>
       </c>
       <c r="AN8" t="n">
-        <v>99.53822103266205</v>
+        <v>27.01712663192233</v>
       </c>
       <c r="AO8" t="n">
-        <v>27.43197872146521</v>
+        <v>20.62470006282539</v>
       </c>
       <c r="AP8" t="n">
-        <v>36.98304603859854</v>
+        <v>91.65882116312443</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22.00189310712864</v>
+        <v>18.93508367659182</v>
       </c>
       <c r="AR8" t="n">
-        <v>19.38927603177432</v>
+        <v>25.97720829525477</v>
       </c>
       <c r="AS8" t="n">
-        <v>18.07525304713261</v>
+        <v>49.43672046121094</v>
       </c>
       <c r="AT8" t="n">
-        <v>17.99925385862871</v>
+        <v>31.7812681250811</v>
       </c>
       <c r="AU8" t="n">
-        <v>16.20431633844122</v>
+        <v>35.74085439881077</v>
       </c>
       <c r="AV8" t="n">
-        <v>19.79908582538173</v>
+        <v>25.95126304449417</v>
       </c>
       <c r="AW8" t="n">
-        <v>22.69001830146158</v>
+        <v>7.353850323166682</v>
       </c>
       <c r="AX8" t="n">
-        <v>21.91596024658886</v>
+        <v>14.06942569317658</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2.84838400315447</v>
+        <v>2.969487485306305</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9778981043999762</v>
+        <v>4.702036760944505</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>5.246350666374703</v>
       </c>
       <c r="F9" t="n">
-        <v>8.587208647482175</v>
+        <v>3.464848530197483</v>
       </c>
       <c r="G9" t="n">
-        <v>8.402567905552358</v>
+        <v>2.373617184357529</v>
       </c>
       <c r="H9" t="n">
-        <v>5.768916925731379</v>
+        <v>7.191095536396073</v>
       </c>
       <c r="I9" t="n">
-        <v>3.663046913733454</v>
+        <v>10.71026176341392</v>
       </c>
       <c r="J9" t="n">
-        <v>16.47800183269199</v>
+        <v>2.437813097600111</v>
       </c>
       <c r="K9" t="n">
-        <v>3.646999335011559</v>
+        <v>9.30008657184956</v>
       </c>
       <c r="L9" t="n">
-        <v>7.881725814134382</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>5.73034488988641</v>
+        <v>6.589235710806533</v>
       </c>
       <c r="N9" t="n">
-        <v>8.498201452989719</v>
+        <v>5.480304859967766</v>
       </c>
       <c r="O9" t="n">
-        <v>9.642467732438824</v>
+        <v>4.502812440399948</v>
       </c>
       <c r="P9" t="n">
-        <v>2.312677163712812</v>
+        <v>5.478979847453682</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.41921080483142</v>
+        <v>6.273518594177896</v>
       </c>
       <c r="R9" t="n">
-        <v>4.987435350572998</v>
+        <v>17.82145404758229</v>
       </c>
       <c r="S9" t="n">
-        <v>2.485130015127079</v>
+        <v>7.360313559161483</v>
       </c>
       <c r="T9" t="n">
-        <v>3.240522106308287</v>
+        <v>2.548302138549291</v>
       </c>
       <c r="U9" t="n">
-        <v>3.506991585744661</v>
+        <v>4.291456646454537</v>
       </c>
       <c r="V9" t="n">
-        <v>1.399829826771958</v>
+        <v>5.941948167103948</v>
       </c>
       <c r="W9" t="n">
-        <v>8.647701894304554</v>
+        <v>2.59032582016056</v>
       </c>
       <c r="X9" t="n">
-        <v>3.921325471701905</v>
+        <v>0.4645613216706924</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.833102207489395</v>
+        <v>3.740601994479741</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.803406469256659</v>
+        <v>9.529098094994005</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.272110413326602</v>
+        <v>2.702809004664114</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.03239309873305</v>
+        <v>0.6606661593399026</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.731607209702327</v>
+        <v>5.838584156076047</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.906158405046</v>
+        <v>5.893889704857785</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.73768624349885</v>
+        <v>4.58281518442524</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.023412231619984</v>
+        <v>6.254137448441669</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.658677340386391</v>
+        <v>2.515449882142533</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.156616258977233</v>
+        <v>2.643429246023801</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.008151128327578</v>
+        <v>3.350380641357986</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.644192540883407</v>
+        <v>6.160557266326172</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.51340196111622</v>
+        <v>8.825643917417956</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.57096425479622</v>
+        <v>3.137321708931402</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.66680014793508</v>
+        <v>6.903210488322087</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.322986769937505</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.650475124885594</v>
+        <v>5.258555233407438</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.424134370694282</v>
+        <v>2.11701335256762</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.829857869975446</v>
+        <v>8.524638399957393</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.689307270305791</v>
+        <v>5.421778968809994</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.949660709717967</v>
+        <v>4.809164865832694</v>
       </c>
       <c r="AT9" t="n">
-        <v>7.093735767021625</v>
+        <v>3.53826215505996</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.627658530701859</v>
+        <v>1.611236989531222</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.772596301832835</v>
+        <v>5.679930116860403</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.723061231739808</v>
+        <v>2.184364241846842</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.9400364117816433</v>
+        <v>5.347449028474173</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.98498269824351</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>21.41764237046</v>
       </c>
       <c r="E10" t="n">
-        <v>7.482346441891934</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>46.0684794701497</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>31.3965140033763</v>
+        <v>13.08993036454072</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5.955528495505796</v>
       </c>
       <c r="I10" t="n">
-        <v>53.20149935067143</v>
+        <v>36.86957968771127</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>144.3993558151497</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>48.13811553709662</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>275.2691009581065</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>35.85064047733746</v>
+        <v>5.979934657196977</v>
       </c>
       <c r="O10" t="n">
-        <v>46.89520368962988</v>
+        <v>61.10451595950214</v>
       </c>
       <c r="P10" t="n">
-        <v>100.1989033143703</v>
+        <v>177.5248871986279</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.8661796387092</v>
+        <v>7.579328209894173</v>
       </c>
       <c r="R10" t="n">
-        <v>33.29122720414577</v>
+        <v>68.6655113492363</v>
       </c>
       <c r="S10" t="n">
-        <v>41.71453390716332</v>
+        <v>213.1980379806334</v>
       </c>
       <c r="T10" t="n">
-        <v>88.92817604150629</v>
+        <v>19.56947071794842</v>
       </c>
       <c r="U10" t="n">
-        <v>89.0101533474166</v>
+        <v>48.46326694443425</v>
       </c>
       <c r="V10" t="n">
-        <v>25.91224899455564</v>
+        <v>49.52282488186337</v>
       </c>
       <c r="W10" t="n">
-        <v>89.29660470421896</v>
+        <v>54.79795725672734</v>
       </c>
       <c r="X10" t="n">
-        <v>42.67934962429918</v>
+        <v>40.93537622195053</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.4043723041569</v>
+        <v>40.28273275250992</v>
       </c>
       <c r="Z10" t="n">
-        <v>40.80825095276521</v>
+        <v>64.52688435843474</v>
       </c>
       <c r="AA10" t="n">
-        <v>83.47270664747954</v>
+        <v>70.73702949397499</v>
       </c>
       <c r="AB10" t="n">
-        <v>38.14253457213488</v>
+        <v>104.5074815032617</v>
       </c>
       <c r="AC10" t="n">
-        <v>102.7701834012092</v>
+        <v>107.5306350822098</v>
       </c>
       <c r="AD10" t="n">
-        <v>63.59059168487411</v>
+        <v>106.8413674134564</v>
       </c>
       <c r="AE10" t="n">
-        <v>85.12156792570394</v>
+        <v>64.51497551400143</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.36556065241759</v>
+        <v>95.9845426139874</v>
       </c>
       <c r="AG10" t="n">
-        <v>68.62307500232724</v>
+        <v>33.17579286341223</v>
       </c>
       <c r="AH10" t="n">
-        <v>54.41096513772212</v>
+        <v>45.87437905275888</v>
       </c>
       <c r="AI10" t="n">
-        <v>39.25260983768116</v>
+        <v>74.57673501379674</v>
       </c>
       <c r="AJ10" t="n">
-        <v>74.49506408892933</v>
+        <v>52.93782648882407</v>
       </c>
       <c r="AK10" t="n">
-        <v>27.58848081189231</v>
+        <v>55.23439033289903</v>
       </c>
       <c r="AL10" t="n">
-        <v>25.02288784631303</v>
+        <v>30.24145715251466</v>
       </c>
       <c r="AM10" t="n">
-        <v>24.1287927044559</v>
+        <v>32.0803920225346</v>
       </c>
       <c r="AN10" t="n">
-        <v>26.97958865242066</v>
+        <v>16.70994640892553</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.12990921136595</v>
+        <v>13.59692652757657</v>
       </c>
       <c r="AP10" t="n">
-        <v>11.75800726088125</v>
+        <v>7.338376336703056</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15.44081523436315</v>
+        <v>23.88261924642016</v>
       </c>
       <c r="AR10" t="n">
-        <v>17.20206045249778</v>
+        <v>27.08665317923635</v>
       </c>
       <c r="AS10" t="n">
-        <v>14.49174270487421</v>
+        <v>34.42407216972528</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.652620815284439</v>
+        <v>11.68869107693221</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.493877908540119</v>
+        <v>15.99806209081167</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.74551039875953</v>
+        <v>21.39392971494473</v>
       </c>
       <c r="AW10" t="n">
-        <v>16.20724051781658</v>
+        <v>18.28409417105834</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.442899169910783</v>
+        <v>13.00209571016581</v>
       </c>
     </row>
     <row r="11">
@@ -2061,13 +2061,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>13.16709161665919</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>20.40237830695065</v>
+        <v>72.17194877836539</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>67.1430349421472</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2076,133 +2076,133 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.18705123612003</v>
+        <v>28.75489581111889</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47611006432812</v>
+        <v>40.74909842330278</v>
       </c>
       <c r="J11" t="n">
-        <v>59.52728030517645</v>
+        <v>21.81211089307642</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.857431514376827</v>
       </c>
       <c r="L11" t="n">
-        <v>11.27190483994157</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>94.14145771430189</v>
+        <v>88.46507089815765</v>
       </c>
       <c r="N11" t="n">
-        <v>77.37036454793432</v>
+        <v>21.0615993483818</v>
       </c>
       <c r="O11" t="n">
-        <v>177.6230513222912</v>
+        <v>66.73913974398593</v>
       </c>
       <c r="P11" t="n">
-        <v>182.16958767941</v>
+        <v>43.43328412927262</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.4002896067917</v>
+        <v>40.99067953194695</v>
       </c>
       <c r="R11" t="n">
-        <v>58.15294573704729</v>
+        <v>50.59623477057926</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07033528175219</v>
+        <v>106.7929703315099</v>
       </c>
       <c r="T11" t="n">
-        <v>33.62717686276563</v>
+        <v>19.25082479205538</v>
       </c>
       <c r="U11" t="n">
-        <v>81.63312457780751</v>
+        <v>21.33461273374071</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>45.46819997826832</v>
       </c>
       <c r="W11" t="n">
-        <v>49.81376470292605</v>
+        <v>56.73671962462247</v>
       </c>
       <c r="X11" t="n">
-        <v>65.01749497211881</v>
+        <v>164.5503105819679</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.19554912172093</v>
+        <v>54.6759831217703</v>
       </c>
       <c r="Z11" t="n">
-        <v>50.59513106667049</v>
+        <v>14.94884878304092</v>
       </c>
       <c r="AA11" t="n">
-        <v>38.78358226373612</v>
+        <v>12.82668346450372</v>
       </c>
       <c r="AB11" t="n">
-        <v>46.67229481073255</v>
+        <v>42.14452387786179</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.44876183515368</v>
+        <v>36.28079921163407</v>
       </c>
       <c r="AD11" t="n">
-        <v>56.5889495822602</v>
+        <v>26.31829737235449</v>
       </c>
       <c r="AE11" t="n">
-        <v>32.05763754951234</v>
+        <v>35.28622801787755</v>
       </c>
       <c r="AF11" t="n">
-        <v>42.41978488053844</v>
+        <v>111.4508516307209</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.93283181281341</v>
+        <v>39.70750804262504</v>
       </c>
       <c r="AH11" t="n">
-        <v>48.10171016511861</v>
+        <v>6.584950391111425</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>16.04312410718811</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.01486813436836</v>
+        <v>18.41181167002271</v>
       </c>
       <c r="AK11" t="n">
-        <v>32.3589656051393</v>
+        <v>42.41200257047072</v>
       </c>
       <c r="AL11" t="n">
-        <v>34.83675299051236</v>
+        <v>3.854116143793854</v>
       </c>
       <c r="AM11" t="n">
-        <v>37.30595725040072</v>
+        <v>24.90595256900883</v>
       </c>
       <c r="AN11" t="n">
-        <v>28.44603073938751</v>
+        <v>28.5553077701589</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.128213255884262</v>
+        <v>22.11830987394383</v>
       </c>
       <c r="AP11" t="n">
-        <v>23.926916159316</v>
+        <v>15.20640702715781</v>
       </c>
       <c r="AQ11" t="n">
-        <v>32.04156960619039</v>
+        <v>1.220152188777639</v>
       </c>
       <c r="AR11" t="n">
-        <v>23.90838839325228</v>
+        <v>31.63137206605649</v>
       </c>
       <c r="AS11" t="n">
-        <v>20.10720649009286</v>
+        <v>11.53555556069832</v>
       </c>
       <c r="AT11" t="n">
-        <v>28.45493494091119</v>
+        <v>22.68077601553304</v>
       </c>
       <c r="AU11" t="n">
-        <v>28.77623172237193</v>
+        <v>14.36971895386897</v>
       </c>
       <c r="AV11" t="n">
-        <v>33.68787811685647</v>
+        <v>0.864174234599693</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>21.48086820636701</v>
       </c>
       <c r="AX11" t="n">
-        <v>36.01338070121709</v>
+        <v>23.25534025131828</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>4.034863245341418</v>
+        <v>20.06511972073546</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>8.017817832427173</v>
       </c>
       <c r="E12" t="n">
-        <v>6.97781699047106</v>
+        <v>6.565857147623257</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.82684753390775</v>
       </c>
       <c r="G12" t="n">
-        <v>4.000588220770146</v>
+        <v>76.56215251802614</v>
       </c>
       <c r="H12" t="n">
-        <v>5.388532505557532</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.709626541539315</v>
+        <v>2.179708563014406</v>
       </c>
       <c r="J12" t="n">
-        <v>29.40156074957876</v>
+        <v>49.01543117054969</v>
       </c>
       <c r="K12" t="n">
-        <v>4.345805471433316</v>
+        <v>10.41271565996816</v>
       </c>
       <c r="L12" t="n">
-        <v>8.71097928127012</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.61201507784596</v>
+        <v>98.35776667744008</v>
       </c>
       <c r="N12" t="n">
-        <v>15.59458022188924</v>
+        <v>3.558888064552856</v>
       </c>
       <c r="O12" t="n">
-        <v>37.17864797420827</v>
+        <v>12.18002280885174</v>
       </c>
       <c r="P12" t="n">
-        <v>3.670920854955439</v>
+        <v>26.74269742685237</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.85954965283002</v>
+        <v>12.68062391084682</v>
       </c>
       <c r="R12" t="n">
-        <v>110.5146707322473</v>
+        <v>58.82188810289248</v>
       </c>
       <c r="S12" t="n">
-        <v>29.47173479621867</v>
+        <v>22.53513604493184</v>
       </c>
       <c r="T12" t="n">
-        <v>26.75216846795532</v>
+        <v>7.91402397025243</v>
       </c>
       <c r="U12" t="n">
-        <v>24.0156811303372</v>
+        <v>78.38698321363171</v>
       </c>
       <c r="V12" t="n">
-        <v>7.360080723380026</v>
+        <v>13.65115482074211</v>
       </c>
       <c r="W12" t="n">
-        <v>9.647328698063685</v>
+        <v>19.05523385507597</v>
       </c>
       <c r="X12" t="n">
-        <v>9.949220479177939</v>
+        <v>11.37028151750558</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.79266144228535</v>
+        <v>51.83518789775661</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.54463268617403</v>
+        <v>1.772795189733608</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.98079842684845</v>
+        <v>21.48672747574199</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.10861542480104</v>
+        <v>2.624918815553508</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.64036225823177</v>
+        <v>8.36753251933836</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.0852645658212</v>
+        <v>14.4650470434833</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.561022569900979</v>
+        <v>14.53931149002166</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.07405374861687</v>
+        <v>6.093217894731994</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.151683003306232</v>
+        <v>17.90898413379415</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.37980199025195</v>
+        <v>19.44126238334529</v>
       </c>
       <c r="AI12" t="n">
-        <v>15.55323114492075</v>
+        <v>14.34590754017223</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.71497662294925</v>
+        <v>6.374871962594384</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.8487797130555</v>
+        <v>14.13011374960847</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.291548804506862</v>
+        <v>24.03875487890358</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.289196513340706</v>
+        <v>12.18582592478288</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.647563684971647</v>
+        <v>4.583136834186665</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.099513120204892</v>
+        <v>3.833713716256362</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.607771982448161</v>
+        <v>6.576836441323586</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.9673096974973554</v>
+        <v>1.460541872207129</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.142232557742328</v>
+        <v>3.760254267145866</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.383633435754574</v>
+        <v>4.191384388013241</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.153739012887488</v>
+        <v>8.843975221540294</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.141116966287285</v>
+        <v>3.195085170253098</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.366614482158638</v>
+        <v>2.653238127483662</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.398988055934193</v>
+        <v>1.785718623354821</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.651688161099778</v>
+        <v>1.156900719117179</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0258333048160877</v>
+        <v>25.41185967595375</v>
       </c>
       <c r="D13" t="n">
-        <v>6.839794518420474</v>
+        <v>30.85763299873963</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>31.77635298250548</v>
       </c>
       <c r="F13" t="n">
-        <v>5.169157915311999</v>
+        <v>14.65061275519699</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.764247969674384</v>
       </c>
       <c r="H13" t="n">
-        <v>163.2660850962573</v>
+        <v>0.2687581236413017</v>
       </c>
       <c r="I13" t="n">
-        <v>10.82114985645968</v>
+        <v>11.49891124381592</v>
       </c>
       <c r="J13" t="n">
-        <v>41.66995042161143</v>
+        <v>0.5573539855370941</v>
       </c>
       <c r="K13" t="n">
-        <v>10.83176585748178</v>
+        <v>4.085464922142988</v>
       </c>
       <c r="L13" t="n">
-        <v>46.03689525038418</v>
+        <v>9.801526387047787</v>
       </c>
       <c r="M13" t="n">
-        <v>20.12076886356499</v>
+        <v>19.54954682506953</v>
       </c>
       <c r="N13" t="n">
-        <v>6.94163155492253</v>
+        <v>1.940102818783727</v>
       </c>
       <c r="O13" t="n">
-        <v>22.91330257333207</v>
+        <v>69.52402260316232</v>
       </c>
       <c r="P13" t="n">
-        <v>53.93643531562441</v>
+        <v>8.29209298438291</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.48029467237246</v>
+        <v>46.27886308609616</v>
       </c>
       <c r="R13" t="n">
-        <v>31.07841622817669</v>
+        <v>29.23439129635294</v>
       </c>
       <c r="S13" t="n">
-        <v>8.873498839777481</v>
+        <v>51.80120585095827</v>
       </c>
       <c r="T13" t="n">
-        <v>60.90027832724189</v>
+        <v>19.25111548479652</v>
       </c>
       <c r="U13" t="n">
-        <v>20.24224864613756</v>
+        <v>25.55272369769025</v>
       </c>
       <c r="V13" t="n">
-        <v>5.781309967492499</v>
+        <v>67.57486875464605</v>
       </c>
       <c r="W13" t="n">
-        <v>9.755519458916901</v>
+        <v>26.49799510015295</v>
       </c>
       <c r="X13" t="n">
-        <v>5.144428968489192</v>
+        <v>7.614072605106161</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.59944852562129</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1547817509059146</v>
+        <v>7.911779248268441</v>
       </c>
       <c r="AA13" t="n">
-        <v>30.82105630773762</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.830619749548156</v>
+        <v>0.7893460455703716</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.704411444638758</v>
+        <v>9.675068837406743</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>17.39083115817328</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.46273343453613</v>
+        <v>19.23261647820832</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.874100773568362</v>
+        <v>57.64882200837894</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.6813647295009</v>
+        <v>10.6288334471013</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.6437654173328893</v>
+        <v>0.3049959136565425</v>
       </c>
       <c r="AI13" t="n">
-        <v>42.17771086100534</v>
+        <v>7.269702220170366</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>9.208434688835407</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.032366682695956</v>
+        <v>22.74274672572398</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.5356364581376</v>
+        <v>20.80136658239658</v>
       </c>
       <c r="AM13" t="n">
-        <v>22.58019548614555</v>
+        <v>9.983332915004047</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.096290310014766</v>
+        <v>10.62678121812989</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.623674814685861</v>
+        <v>5.252392131812061</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.106990028378609</v>
+        <v>2.327712830880634</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>3.308652912264516</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.01608887153677</v>
+        <v>5.004177432346613</v>
       </c>
       <c r="AS13" t="n">
-        <v>22.60773508534549</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6034157380860373</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>11.84420766011484</v>
+        <v>11.1979397982186</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.9081834589111426</v>
+        <v>3.310665712871395</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.4461366577981811</v>
+        <v>1.450551292001123</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.814856780260322</v>
+        <v>8.469026556479333</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>45.59585338374133</v>
       </c>
       <c r="D14" t="n">
-        <v>8.938952443364276</v>
+        <v>55.85831879057736</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>31.27055345891734</v>
       </c>
       <c r="G14" t="n">
-        <v>29.98571947257222</v>
+        <v>40.92038556381453</v>
       </c>
       <c r="H14" t="n">
-        <v>14.13936597022161</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.14176653639954</v>
+        <v>5.588291389087845</v>
       </c>
       <c r="J14" t="n">
-        <v>30.09684899177675</v>
+        <v>41.42671498923362</v>
       </c>
       <c r="K14" t="n">
-        <v>98.22246444978589</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>108.177709999129</v>
+        <v>32.11132384405008</v>
       </c>
       <c r="M14" t="n">
-        <v>62.65156865356034</v>
+        <v>23.52111390594958</v>
       </c>
       <c r="N14" t="n">
-        <v>64.94723719672447</v>
+        <v>107.788435653279</v>
       </c>
       <c r="O14" t="n">
-        <v>59.63226851769083</v>
+        <v>19.90195549625762</v>
       </c>
       <c r="P14" t="n">
-        <v>33.37472041862247</v>
+        <v>86.64196851296852</v>
       </c>
       <c r="Q14" t="n">
-        <v>192.6848244156046</v>
+        <v>89.44781155202672</v>
       </c>
       <c r="R14" t="n">
-        <v>55.13192324051556</v>
+        <v>23.2936708211327</v>
       </c>
       <c r="S14" t="n">
-        <v>80.47238818812374</v>
+        <v>67.99597084441967</v>
       </c>
       <c r="T14" t="n">
-        <v>57.06789800737239</v>
+        <v>93.00856397975099</v>
       </c>
       <c r="U14" t="n">
-        <v>85.77473000070491</v>
+        <v>36.52236984536632</v>
       </c>
       <c r="V14" t="n">
-        <v>76.6215636402889</v>
+        <v>69.44899451299439</v>
       </c>
       <c r="W14" t="n">
-        <v>56.32281963222122</v>
+        <v>47.01652487898787</v>
       </c>
       <c r="X14" t="n">
-        <v>50.3361206953542</v>
+        <v>71.60236244023062</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.75914183161208</v>
+        <v>108.0521509533818</v>
       </c>
       <c r="Z14" t="n">
-        <v>50.78000675949458</v>
+        <v>21.7322870238117</v>
       </c>
       <c r="AA14" t="n">
-        <v>61.67679053166724</v>
+        <v>150.484548985599</v>
       </c>
       <c r="AB14" t="n">
-        <v>118.2371261615572</v>
+        <v>83.13430969763188</v>
       </c>
       <c r="AC14" t="n">
-        <v>110.6378454250011</v>
+        <v>60.94672520238849</v>
       </c>
       <c r="AD14" t="n">
-        <v>98.96215824762592</v>
+        <v>147.8237264503514</v>
       </c>
       <c r="AE14" t="n">
-        <v>122.9394968780679</v>
+        <v>80.77110446918343</v>
       </c>
       <c r="AF14" t="n">
-        <v>111.9156032719611</v>
+        <v>119.9631551041192</v>
       </c>
       <c r="AG14" t="n">
-        <v>111.7634990685016</v>
+        <v>105.5597096895505</v>
       </c>
       <c r="AH14" t="n">
-        <v>173.6159437475168</v>
+        <v>52.68348982668691</v>
       </c>
       <c r="AI14" t="n">
-        <v>50.67053687769366</v>
+        <v>180.2472230196737</v>
       </c>
       <c r="AJ14" t="n">
-        <v>102.2335698202891</v>
+        <v>129.9719179042137</v>
       </c>
       <c r="AK14" t="n">
-        <v>67.28788838140527</v>
+        <v>21.83187004549033</v>
       </c>
       <c r="AL14" t="n">
-        <v>40.58535987229475</v>
+        <v>119.7429178569239</v>
       </c>
       <c r="AM14" t="n">
-        <v>34.68638066070772</v>
+        <v>40.46912391491571</v>
       </c>
       <c r="AN14" t="n">
-        <v>38.70967005158302</v>
+        <v>25.33608272644397</v>
       </c>
       <c r="AO14" t="n">
-        <v>41.7158711223116</v>
+        <v>7.747618984800627</v>
       </c>
       <c r="AP14" t="n">
-        <v>25.43108689124895</v>
+        <v>45.58538589383765</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24.0200384585079</v>
+        <v>13.25982319649419</v>
       </c>
       <c r="AR14" t="n">
-        <v>45.14429074551371</v>
+        <v>23.49520021933862</v>
       </c>
       <c r="AS14" t="n">
-        <v>30.21175562485262</v>
+        <v>14.65675391198505</v>
       </c>
       <c r="AT14" t="n">
-        <v>27.94084121092205</v>
+        <v>39.48571890207964</v>
       </c>
       <c r="AU14" t="n">
-        <v>13.33824149731099</v>
+        <v>18.57688379227481</v>
       </c>
       <c r="AV14" t="n">
-        <v>17.07374531793434</v>
+        <v>13.59513421023316</v>
       </c>
       <c r="AW14" t="n">
-        <v>22.35357421229804</v>
+        <v>15.06192825922674</v>
       </c>
       <c r="AX14" t="n">
-        <v>15.43406631240976</v>
+        <v>12.83079998656386</v>
       </c>
     </row>
     <row r="15">
@@ -2672,145 +2672,145 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3.470329379632147</v>
+        <v>2.320431370026153</v>
       </c>
       <c r="E15" t="n">
-        <v>4.837878698379069</v>
+        <v>5.554530083994162</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1914212345896905</v>
+        <v>4.482212230639578</v>
       </c>
       <c r="G15" t="n">
-        <v>2.282554469150926</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.126605539500146</v>
+        <v>3.794848839149212</v>
       </c>
       <c r="I15" t="n">
-        <v>8.811628910829633</v>
+        <v>3.180400176857336</v>
       </c>
       <c r="J15" t="n">
-        <v>8.677361923908652</v>
+        <v>5.551978471964517</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8845811324201497</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.749489614002956</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2.630450405218981</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.570292516697767</v>
+        <v>0.6842192853333453</v>
       </c>
       <c r="O15" t="n">
-        <v>2.817136362184274</v>
+        <v>1.309380188999708</v>
       </c>
       <c r="P15" t="n">
-        <v>3.363553579480099</v>
+        <v>3.995549497258717</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.322196303695566</v>
+        <v>3.618973029067747</v>
       </c>
       <c r="R15" t="n">
-        <v>6.596398154946042</v>
+        <v>5.609053211612538</v>
       </c>
       <c r="S15" t="n">
-        <v>2.356068399958692</v>
+        <v>1.869494755604446</v>
       </c>
       <c r="T15" t="n">
-        <v>2.048366130027526</v>
+        <v>1.981582217767943</v>
       </c>
       <c r="U15" t="n">
-        <v>1.898563031054334</v>
+        <v>0.8626367022264465</v>
       </c>
       <c r="V15" t="n">
-        <v>3.294689196116943</v>
+        <v>2.242056524663834</v>
       </c>
       <c r="W15" t="n">
-        <v>11.98874537132662</v>
+        <v>4.786395655216439</v>
       </c>
       <c r="X15" t="n">
-        <v>3.131639396405713</v>
+        <v>8.317599669130775</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.774023176269504</v>
+        <v>4.408931995080613</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.057177467021806</v>
+        <v>4.72823696417777</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.401698834042695</v>
+        <v>6.953078237862802</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.03494093885175</v>
+        <v>3.807063385327973</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.909539628006327</v>
+        <v>3.138565270259415</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.026743843658888</v>
+        <v>5.579650022781412</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.936030309374357</v>
+        <v>2.830078023704883</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.53636488230675</v>
+        <v>7.293417235209228</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.742579239661354</v>
+        <v>5.820211309580552</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.678027235495428</v>
+        <v>3.926911066209522</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.499280069498729</v>
+        <v>5.830789323645581</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.064807771165976</v>
+        <v>2.610931352387952</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.833562466833715</v>
+        <v>3.794218938145527</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.475171491458194</v>
+        <v>6.450201973740224</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.832503923394082</v>
+        <v>1.982284639841625</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.188140281666769</v>
+        <v>2.759653109405034</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.290904750556112</v>
+        <v>2.302649222370121</v>
       </c>
       <c r="AP15" t="n">
-        <v>7.202754274853477</v>
+        <v>4.155050798360636</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.589961243809538</v>
+        <v>1.764746803617687</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.071173292689425</v>
+        <v>2.676851026729961</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.407978123287136</v>
+        <v>3.242113359613177</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.293357611064653</v>
+        <v>5.240055288559052</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.778325271112783</v>
+        <v>3.365963417542717</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.980098256504196</v>
+        <v>3.483523387702855</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.335880140132874</v>
+        <v>2.89906941393117</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.19149656427145</v>
+        <v>5.003168240140078</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>19.38849239179343</v>
+        <v>67.45010255709236</v>
       </c>
       <c r="D16" t="n">
-        <v>64.55678040016575</v>
+        <v>6.592071494349307</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>18.21927467140572</v>
       </c>
       <c r="G16" t="n">
-        <v>12.29463428422003</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.991284470880526</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>30.45101077164195</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.82419636715331</v>
+        <v>35.8611576671921</v>
       </c>
       <c r="K16" t="n">
-        <v>34.08491844464604</v>
+        <v>24.38064401952961</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>52.00809925181935</v>
+        <v>20.4313165977503</v>
       </c>
       <c r="N16" t="n">
-        <v>33.11887513797369</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>77.61623885595235</v>
+        <v>27.26551547697824</v>
       </c>
       <c r="P16" t="n">
-        <v>7.545451882392111</v>
+        <v>88.72491131845169</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.96478725093776</v>
+        <v>44.38693311304053</v>
       </c>
       <c r="R16" t="n">
-        <v>104.4624276497096</v>
+        <v>86.71047059115631</v>
       </c>
       <c r="S16" t="n">
-        <v>44.8250015893376</v>
+        <v>53.0008606636378</v>
       </c>
       <c r="T16" t="n">
-        <v>57.58459677771858</v>
+        <v>61.21508963703552</v>
       </c>
       <c r="U16" t="n">
-        <v>50.35269511317237</v>
+        <v>61.50889372034943</v>
       </c>
       <c r="V16" t="n">
-        <v>350.7976720792589</v>
+        <v>84.1316015125615</v>
       </c>
       <c r="W16" t="n">
-        <v>66.89083202388983</v>
+        <v>55.68937886242664</v>
       </c>
       <c r="X16" t="n">
-        <v>17.94238512699026</v>
+        <v>59.0055412213157</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.77339403402901</v>
+        <v>49.80981488944332</v>
       </c>
       <c r="Z16" t="n">
-        <v>55.13789679451904</v>
+        <v>82.34393490886298</v>
       </c>
       <c r="AA16" t="n">
-        <v>50.24125053693004</v>
+        <v>54.59444732065752</v>
       </c>
       <c r="AB16" t="n">
-        <v>59.53145913362998</v>
+        <v>86.45880372954855</v>
       </c>
       <c r="AC16" t="n">
-        <v>71.43759964777769</v>
+        <v>30.61373139528613</v>
       </c>
       <c r="AD16" t="n">
-        <v>63.50518313908751</v>
+        <v>74.80556035720517</v>
       </c>
       <c r="AE16" t="n">
-        <v>35.31050149312563</v>
+        <v>38.0942580592689</v>
       </c>
       <c r="AF16" t="n">
-        <v>73.70739892906806</v>
+        <v>27.2104027816612</v>
       </c>
       <c r="AG16" t="n">
-        <v>87.59935738783246</v>
+        <v>44.5822010719968</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.00523810370884</v>
+        <v>54.70802974977405</v>
       </c>
       <c r="AI16" t="n">
-        <v>76.96687645330952</v>
+        <v>60.20876255269335</v>
       </c>
       <c r="AJ16" t="n">
-        <v>52.96700170809062</v>
+        <v>71.41343474115573</v>
       </c>
       <c r="AK16" t="n">
-        <v>31.90598328594025</v>
+        <v>57.56692424004981</v>
       </c>
       <c r="AL16" t="n">
-        <v>45.71287642025444</v>
+        <v>54.1921068583455</v>
       </c>
       <c r="AM16" t="n">
-        <v>34.76532023488087</v>
+        <v>15.25147682143097</v>
       </c>
       <c r="AN16" t="n">
-        <v>30.70108763126817</v>
+        <v>19.87435383278468</v>
       </c>
       <c r="AO16" t="n">
-        <v>10.62120938829703</v>
+        <v>13.54543046895613</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.94083997116982</v>
+        <v>16.34409947235973</v>
       </c>
       <c r="AQ16" t="n">
-        <v>36.08692203826919</v>
+        <v>42.20321812946255</v>
       </c>
       <c r="AR16" t="n">
-        <v>18.4651294742459</v>
+        <v>15.21237368176866</v>
       </c>
       <c r="AS16" t="n">
-        <v>23.4464187258289</v>
+        <v>9.366674166735219</v>
       </c>
       <c r="AT16" t="n">
-        <v>16.22935426278975</v>
+        <v>7.421348649336323</v>
       </c>
       <c r="AU16" t="n">
-        <v>15.45412460541401</v>
+        <v>20.44825493617579</v>
       </c>
       <c r="AV16" t="n">
-        <v>14.37332654785697</v>
+        <v>6.642421573413104</v>
       </c>
       <c r="AW16" t="n">
-        <v>9.573539888820516</v>
+        <v>7.806923680849207</v>
       </c>
       <c r="AX16" t="n">
-        <v>12.45563943051873</v>
+        <v>17.86765800586462</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>10.10911860347833</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>28.05796682645499</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>14.44813170264087</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>63.42340794467407</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>14.99864314337186</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.75257329698572</v>
+        <v>33.37953986056021</v>
       </c>
       <c r="J17" t="n">
-        <v>132.32331491046</v>
+        <v>26.9622863278819</v>
       </c>
       <c r="K17" t="n">
-        <v>40.04893154122507</v>
+        <v>41.76799608242523</v>
       </c>
       <c r="L17" t="n">
-        <v>80.76707226672245</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>49.62416146519499</v>
+        <v>79.75157590334163</v>
       </c>
       <c r="N17" t="n">
-        <v>20.65481059009113</v>
+        <v>111.6250618067836</v>
       </c>
       <c r="O17" t="n">
-        <v>3.711302768852708</v>
+        <v>16.4040015413986</v>
       </c>
       <c r="P17" t="n">
-        <v>31.04683233147408</v>
+        <v>20.42767298901952</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.1861979675241</v>
+        <v>31.75056861990415</v>
       </c>
       <c r="R17" t="n">
-        <v>48.56223564746832</v>
+        <v>89.72359691863767</v>
       </c>
       <c r="S17" t="n">
-        <v>31.37100388886552</v>
+        <v>37.75424552741457</v>
       </c>
       <c r="T17" t="n">
-        <v>77.32870440701703</v>
+        <v>85.59227488864684</v>
       </c>
       <c r="U17" t="n">
-        <v>65.20558036992726</v>
+        <v>76.80413820710703</v>
       </c>
       <c r="V17" t="n">
-        <v>30.42641396978199</v>
+        <v>16.9897107438</v>
       </c>
       <c r="W17" t="n">
-        <v>207.6909169827321</v>
+        <v>96.07455481329379</v>
       </c>
       <c r="X17" t="n">
-        <v>36.00270677832584</v>
+        <v>97.27988943004746</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.128381382009763</v>
+        <v>21.94688274032969</v>
       </c>
       <c r="Z17" t="n">
-        <v>37.13319598701063</v>
+        <v>52.28684922296182</v>
       </c>
       <c r="AA17" t="n">
-        <v>35.61048537349192</v>
+        <v>10.63291863420042</v>
       </c>
       <c r="AB17" t="n">
-        <v>40.89009868106378</v>
+        <v>72.32460721568592</v>
       </c>
       <c r="AC17" t="n">
-        <v>44.41300525889811</v>
+        <v>31.4716835403005</v>
       </c>
       <c r="AD17" t="n">
-        <v>34.65384074334605</v>
+        <v>82.08121902810446</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.49023075778649</v>
+        <v>12.37221710599567</v>
       </c>
       <c r="AF17" t="n">
-        <v>59.43662281663992</v>
+        <v>25.27704831325134</v>
       </c>
       <c r="AG17" t="n">
-        <v>41.60211821884253</v>
+        <v>57.97303736386814</v>
       </c>
       <c r="AH17" t="n">
-        <v>58.48293700018107</v>
+        <v>9.278351425833357</v>
       </c>
       <c r="AI17" t="n">
-        <v>10.24295338802773</v>
+        <v>64.48904842451802</v>
       </c>
       <c r="AJ17" t="n">
-        <v>63.64454271822589</v>
+        <v>25.21242350466185</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.33247173792099</v>
+        <v>10.79574219784181</v>
       </c>
       <c r="AL17" t="n">
-        <v>87.2596173872407</v>
+        <v>14.99973387677792</v>
       </c>
       <c r="AM17" t="n">
-        <v>29.45799294678145</v>
+        <v>27.18863179915489</v>
       </c>
       <c r="AN17" t="n">
-        <v>36.12561697766669</v>
+        <v>33.53942276356032</v>
       </c>
       <c r="AO17" t="n">
-        <v>22.01893184953728</v>
+        <v>2.356360336221317</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.162790202476736</v>
+        <v>28.88052096748537</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15.54328099298306</v>
+        <v>21.57684748996155</v>
       </c>
       <c r="AR17" t="n">
-        <v>28.41912210381468</v>
+        <v>16.32504209107611</v>
       </c>
       <c r="AS17" t="n">
-        <v>34.36543363193164</v>
+        <v>34.11146537783824</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>20.77511104420929</v>
       </c>
       <c r="AU17" t="n">
-        <v>46.80813608679024</v>
+        <v>27.43330901229739</v>
       </c>
       <c r="AV17" t="n">
-        <v>20.88137442927011</v>
+        <v>32.12509752404527</v>
       </c>
       <c r="AW17" t="n">
-        <v>25.25873599741567</v>
+        <v>4.487720520004425</v>
       </c>
       <c r="AX17" t="n">
-        <v>22.80530232256209</v>
+        <v>30.76800125819488</v>
       </c>
     </row>
     <row r="18">
@@ -3125,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.191301259315877</v>
+        <v>16.5108766440505</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7.159088403042764</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3137,136 +3137,136 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>5.457123888381235</v>
+        <v>8.053777361187642</v>
       </c>
       <c r="H18" t="n">
-        <v>7.229604279696325</v>
+        <v>24.50383479550396</v>
       </c>
       <c r="I18" t="n">
-        <v>184.8047101374857</v>
+        <v>5.908189893079451</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>16.61022737671041</v>
       </c>
       <c r="K18" t="n">
-        <v>33.45793671612921</v>
+        <v>9.428602755055858</v>
       </c>
       <c r="L18" t="n">
-        <v>21.39482279132248</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>89.15505991975205</v>
+        <v>1.774691975229702</v>
       </c>
       <c r="N18" t="n">
-        <v>65.04914988162622</v>
+        <v>7.220914578907248</v>
       </c>
       <c r="O18" t="n">
-        <v>9.650073095713708</v>
+        <v>1.735371039838657</v>
       </c>
       <c r="P18" t="n">
-        <v>9.258670586415889</v>
+        <v>16.63659797676501</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.1881670412017</v>
+        <v>16.54889002200097</v>
       </c>
       <c r="R18" t="n">
-        <v>33.20416272788216</v>
+        <v>15.03910362077589</v>
       </c>
       <c r="S18" t="n">
-        <v>19.29961772668765</v>
+        <v>61.00403880905613</v>
       </c>
       <c r="T18" t="n">
-        <v>13.47210840858567</v>
+        <v>7.64833285754388</v>
       </c>
       <c r="U18" t="n">
-        <v>38.42672365675867</v>
+        <v>18.40632262415348</v>
       </c>
       <c r="V18" t="n">
-        <v>65.633284834376</v>
+        <v>28.58368591247787</v>
       </c>
       <c r="W18" t="n">
-        <v>25.87567477269482</v>
+        <v>79.01481305215235</v>
       </c>
       <c r="X18" t="n">
-        <v>32.20009041460312</v>
+        <v>19.13300748243377</v>
       </c>
       <c r="Y18" t="n">
-        <v>27.3901074493713</v>
+        <v>41.36340045010412</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.05332912070311</v>
+        <v>20.2189122732157</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.11925855074801</v>
+        <v>13.41227336724447</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.141233305326898</v>
+        <v>12.8118594587617</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.560403807788845</v>
+        <v>13.82281353652713</v>
       </c>
       <c r="AD18" t="n">
-        <v>39.88477496695155</v>
+        <v>24.89941059957518</v>
       </c>
       <c r="AE18" t="n">
-        <v>35.85006698111258</v>
+        <v>19.65456623580431</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.200330283627595</v>
+        <v>6.620717887056687</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.127686182741884</v>
+        <v>13.2639855546917</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.75251219491757</v>
+        <v>10.21343570677801</v>
       </c>
       <c r="AI18" t="n">
-        <v>4.692314637311723</v>
+        <v>16.71244520730537</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.928277237407213</v>
+        <v>15.22405015296591</v>
       </c>
       <c r="AK18" t="n">
-        <v>6.913366299353015</v>
+        <v>15.63793481143278</v>
       </c>
       <c r="AL18" t="n">
-        <v>6.206500845825804</v>
+        <v>14.46001487686213</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.831246036432331</v>
+        <v>4.520708666764558</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.889349235750827</v>
+        <v>2.17268026338473</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.499807037377152</v>
+        <v>5.603435633894883</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.041889303531949</v>
+        <v>4.174641496852368</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.719179273154327</v>
+        <v>4.07068851521154</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.740228015237643</v>
+        <v>2.155530019388826</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.283871284826719</v>
+        <v>8.534818954639247</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.980481658187218</v>
+        <v>4.748418565623679</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.488075700700191</v>
+        <v>1.503422552095092</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.02788615370401981</v>
+        <v>4.388178689629011</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.717398605743293</v>
+        <v>1.635336786456904</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.735927499392262</v>
+        <v>1.375290516035747</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.92691503187115</v>
+        <v>46.23540857776804</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.218742408413022</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>16.45589678365105</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6698761518156418</v>
+        <v>3.302396771903615</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>35.01991871438381</v>
       </c>
       <c r="H19" t="n">
-        <v>16.24113764828876</v>
+        <v>11.24679685689444</v>
       </c>
       <c r="I19" t="n">
-        <v>37.45803889134894</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.30467098717636</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>23.58089078854432</v>
+        <v>23.34925735972284</v>
       </c>
       <c r="L19" t="n">
-        <v>43.86028645937535</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>14.07633603198087</v>
+        <v>15.00228554684994</v>
       </c>
       <c r="N19" t="n">
-        <v>8.154814419706797</v>
+        <v>6.111249735992031</v>
       </c>
       <c r="O19" t="n">
-        <v>85.11755816703881</v>
+        <v>14.77526084368651</v>
       </c>
       <c r="P19" t="n">
-        <v>22.71812052632276</v>
+        <v>31.8630514611873</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.59709706514604</v>
+        <v>22.03488104822075</v>
       </c>
       <c r="R19" t="n">
-        <v>29.1083352608659</v>
+        <v>26.14591748476654</v>
       </c>
       <c r="S19" t="n">
-        <v>27.88139716930668</v>
+        <v>12.96372438448006</v>
       </c>
       <c r="T19" t="n">
-        <v>81.66937505615977</v>
+        <v>25.4527462860244</v>
       </c>
       <c r="U19" t="n">
-        <v>36.88163414730992</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>37.61751145100887</v>
+        <v>100.3363470163517</v>
       </c>
       <c r="W19" t="n">
-        <v>20.40424509167224</v>
+        <v>38.02256975058752</v>
       </c>
       <c r="X19" t="n">
-        <v>6.272791178283875</v>
+        <v>11.00949630573548</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.44820964174996</v>
+        <v>16.46269227463978</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.651741990883436</v>
+        <v>16.64593278509518</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.493974103379847</v>
+        <v>12.3729238246694</v>
       </c>
       <c r="AB19" t="n">
-        <v>25.23199395438282</v>
+        <v>16.25172704950573</v>
       </c>
       <c r="AC19" t="n">
-        <v>30.74454237927335</v>
+        <v>28.18487041403568</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.8932199134826</v>
+        <v>10.69639359594633</v>
       </c>
       <c r="AE19" t="n">
-        <v>3.893661660652691</v>
+        <v>4.895951542101446</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.84778521428237</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>19.32460463802773</v>
+        <v>0.6637100873961201</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.684237543521193</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>30.12715116536406</v>
+        <v>4.901790737379947</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10.96888071292888</v>
+        <v>4.836412688523319</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.610400615966101</v>
+        <v>2.911393503894735</v>
       </c>
       <c r="AL19" t="n">
-        <v>14.07300014496626</v>
+        <v>0.05755516955603124</v>
       </c>
       <c r="AM19" t="n">
-        <v>5.800413470837151</v>
+        <v>6.397217622996557</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.669182688287844</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>10.57985709506607</v>
+        <v>1.968597902581394</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.487326098597503</v>
+        <v>5.180404503632309</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9061917530109502</v>
+        <v>11.22312724884197</v>
       </c>
       <c r="AR19" t="n">
-        <v>12.44546132823898</v>
+        <v>6.822858118473007</v>
       </c>
       <c r="AS19" t="n">
-        <v>8.960544189690046</v>
+        <v>14.2130086542556</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.080840929789913</v>
+        <v>68.04453261231544</v>
       </c>
       <c r="AU19" t="n">
-        <v>5.821067831308709</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>16.67142165390738</v>
+        <v>9.622431603831567</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.11866088866706</v>
+        <v>2.242952037140906</v>
       </c>
       <c r="AX19" t="n">
-        <v>5.827629067865947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.1130058079611</v>
+        <v>29.32773095231842</v>
       </c>
       <c r="D20" t="n">
-        <v>41.82349318342002</v>
+        <v>93.86584652830621</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.333447668948978</v>
+        <v>40.78339177523408</v>
       </c>
       <c r="G20" t="n">
-        <v>16.41480786967748</v>
+        <v>27.70911086331964</v>
       </c>
       <c r="H20" t="n">
-        <v>174.6632950523087</v>
+        <v>5.232121346648825</v>
       </c>
       <c r="I20" t="n">
-        <v>63.39307285494057</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>133.1288698586468</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>107.7723739397892</v>
+        <v>213.0492245222896</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>39.74140092558655</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>102.2350021936524</v>
       </c>
       <c r="N20" t="n">
-        <v>59.33972773411902</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>48.67827709775973</v>
+        <v>50.72187816526879</v>
       </c>
       <c r="P20" t="n">
-        <v>90.76980165090535</v>
+        <v>71.68454326710356</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.45789591281437</v>
+        <v>51.62972727536065</v>
       </c>
       <c r="R20" t="n">
-        <v>1.766368195881256</v>
+        <v>40.03776471932554</v>
       </c>
       <c r="S20" t="n">
-        <v>55.20522322781417</v>
+        <v>30.56042755991022</v>
       </c>
       <c r="T20" t="n">
-        <v>103.1341291579204</v>
+        <v>32.37178000106661</v>
       </c>
       <c r="U20" t="n">
-        <v>40.4852562130168</v>
+        <v>57.75331686041126</v>
       </c>
       <c r="V20" t="n">
-        <v>60.97181858366611</v>
+        <v>39.1686497884827</v>
       </c>
       <c r="W20" t="n">
-        <v>21.66690058135934</v>
+        <v>43.64198632394319</v>
       </c>
       <c r="X20" t="n">
-        <v>46.40660373807847</v>
+        <v>112.2648846343931</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.58453908780706</v>
+        <v>48.56475614011202</v>
       </c>
       <c r="Z20" t="n">
-        <v>40.09224843547375</v>
+        <v>67.20168337860318</v>
       </c>
       <c r="AA20" t="n">
-        <v>107.9172858012555</v>
+        <v>110.7583515934994</v>
       </c>
       <c r="AB20" t="n">
-        <v>103.9191956568224</v>
+        <v>93.15301409566963</v>
       </c>
       <c r="AC20" t="n">
-        <v>163.8350500756899</v>
+        <v>90.9934815122743</v>
       </c>
       <c r="AD20" t="n">
-        <v>53.445230469881</v>
+        <v>17.47745164293368</v>
       </c>
       <c r="AE20" t="n">
-        <v>98.80077388579066</v>
+        <v>112.5097735805549</v>
       </c>
       <c r="AF20" t="n">
-        <v>117.4363765097784</v>
+        <v>94.90296918708314</v>
       </c>
       <c r="AG20" t="n">
-        <v>51.135715450671</v>
+        <v>42.35274385104051</v>
       </c>
       <c r="AH20" t="n">
-        <v>153.5836974906922</v>
+        <v>66.4979869056346</v>
       </c>
       <c r="AI20" t="n">
-        <v>55.92380210963594</v>
+        <v>58.57875993724987</v>
       </c>
       <c r="AJ20" t="n">
-        <v>236.9238956223474</v>
+        <v>87.13331873847085</v>
       </c>
       <c r="AK20" t="n">
-        <v>88.3079380802529</v>
+        <v>108.4216563714397</v>
       </c>
       <c r="AL20" t="n">
-        <v>89.61039316004089</v>
+        <v>109.0576411459341</v>
       </c>
       <c r="AM20" t="n">
-        <v>38.83359234617507</v>
+        <v>7.323903850227033</v>
       </c>
       <c r="AN20" t="n">
-        <v>27.1353898800637</v>
+        <v>24.53665469122318</v>
       </c>
       <c r="AO20" t="n">
-        <v>21.02198804094199</v>
+        <v>32.17807402844839</v>
       </c>
       <c r="AP20" t="n">
-        <v>20.63263089423689</v>
+        <v>37.61355663070109</v>
       </c>
       <c r="AQ20" t="n">
-        <v>23.03945786952555</v>
+        <v>27.8716020727757</v>
       </c>
       <c r="AR20" t="n">
-        <v>44.93597958086994</v>
+        <v>65.65454672506253</v>
       </c>
       <c r="AS20" t="n">
-        <v>16.21758002431016</v>
+        <v>21.61004110709879</v>
       </c>
       <c r="AT20" t="n">
-        <v>18.91479951767825</v>
+        <v>20.51164494999007</v>
       </c>
       <c r="AU20" t="n">
-        <v>20.38187290907467</v>
+        <v>24.10744209769804</v>
       </c>
       <c r="AV20" t="n">
-        <v>16.60181900613665</v>
+        <v>23.7383799963757</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.362914116425991</v>
+        <v>28.81776094259767</v>
       </c>
       <c r="AX20" t="n">
-        <v>26.04407003496313</v>
+        <v>20.16652948049663</v>
       </c>
     </row>
     <row r="21">
@@ -3584,145 +3584,145 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3.301251638698428</v>
       </c>
       <c r="E21" t="n">
-        <v>2.221992162302403</v>
+        <v>0.7937830757689393</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.725374873954386</v>
       </c>
       <c r="G21" t="n">
-        <v>4.896148699038501</v>
+        <v>3.287000474728539</v>
       </c>
       <c r="H21" t="n">
-        <v>8.078253218437657</v>
+        <v>1.499637925864165</v>
       </c>
       <c r="I21" t="n">
-        <v>3.767783663815262</v>
+        <v>5.060560016218349</v>
       </c>
       <c r="J21" t="n">
-        <v>1.722278979774333</v>
+        <v>1.341319652994374</v>
       </c>
       <c r="K21" t="n">
-        <v>4.152869552184763</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.804811886303273</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>8.153611969189617</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.048143010387028</v>
+        <v>0.738966405952877</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5900456970988617</v>
+        <v>2.86906022945021</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4788820983484</v>
+        <v>5.983487605226854</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.824256912495491</v>
+        <v>4.687159885581778</v>
       </c>
       <c r="R21" t="n">
-        <v>1.737813592270062</v>
+        <v>3.682416139532076</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15699219148259</v>
+        <v>2.316004694910712</v>
       </c>
       <c r="T21" t="n">
-        <v>3.220316973071521</v>
+        <v>1.631093394205117</v>
       </c>
       <c r="U21" t="n">
-        <v>2.309904913698655</v>
+        <v>3.475352321352498</v>
       </c>
       <c r="V21" t="n">
-        <v>3.773977134200358</v>
+        <v>7.681708660727748</v>
       </c>
       <c r="W21" t="n">
-        <v>5.544530685329744</v>
+        <v>13.26394705207154</v>
       </c>
       <c r="X21" t="n">
-        <v>6.895796099978075</v>
+        <v>6.268575785660459</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.949039121871337</v>
+        <v>2.386405161788953</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.951004995442835</v>
+        <v>5.961678925310021</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.243508852712335</v>
+        <v>3.012607622117263</v>
       </c>
       <c r="AB21" t="n">
-        <v>3.343763585187612</v>
+        <v>7.725714533205514</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.618998336292721</v>
+        <v>3.704950074602531</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.502140251884831</v>
+        <v>8.439919728727627</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.3176175701426</v>
+        <v>3.511226218561736</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.240956476678592</v>
+        <v>5.165198339209609</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.198966209443199</v>
+        <v>2.067965067351611</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.895115517202293</v>
+        <v>6.558047194735493</v>
       </c>
       <c r="AI21" t="n">
-        <v>8.666842276900296</v>
+        <v>3.106919685288088</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.903677120089997</v>
+        <v>7.204720188188789</v>
       </c>
       <c r="AK21" t="n">
-        <v>7.508634721438947</v>
+        <v>1.827251673747818</v>
       </c>
       <c r="AL21" t="n">
-        <v>7.069772692517679</v>
+        <v>3.274693919995753</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.120279046081537</v>
+        <v>2.479331385608147</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.060680728910334</v>
+        <v>1.189881032920622</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.598790587792134</v>
+        <v>5.464921448084867</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.469358961006487</v>
+        <v>2.652770226351657</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.815341548490169</v>
+        <v>9.322518766778856</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.717266301828865</v>
+        <v>3.303917018376722</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.479542772428188</v>
+        <v>3.759612196515131</v>
       </c>
       <c r="AT21" t="n">
-        <v>6.14869944659245</v>
+        <v>3.297934127864826</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.58945758404673</v>
+        <v>7.457413931311079</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.804145104779609</v>
+        <v>2.322069307616947</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.404042460719953</v>
+        <v>4.087196485966451</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.926878331624319</v>
+        <v>5.85147755863232</v>
       </c>
     </row>
     <row r="22">
@@ -3739,142 +3739,142 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.24862919949268</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11.59553580776094</v>
+        <v>89.49326971836841</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1054034596528783</v>
+        <v>25.9621237850363</v>
       </c>
       <c r="I22" t="n">
-        <v>44.48501654915258</v>
+        <v>17.0794455931671</v>
       </c>
       <c r="J22" t="n">
-        <v>114.3769306954357</v>
+        <v>39.28364447274566</v>
       </c>
       <c r="K22" t="n">
-        <v>6.795113113813926</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>94.81967403170131</v>
+        <v>32.69115484167539</v>
       </c>
       <c r="M22" t="n">
-        <v>43.35879079300582</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>86.9972478707718</v>
+        <v>0.1347888010769704</v>
       </c>
       <c r="O22" t="n">
-        <v>207.197426431985</v>
+        <v>47.96942134732865</v>
       </c>
       <c r="P22" t="n">
-        <v>28.71667461467359</v>
+        <v>43.57587401523381</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5298345713311</v>
+        <v>81.08667645091801</v>
       </c>
       <c r="R22" t="n">
-        <v>80.2523393731269</v>
+        <v>157.327407186575</v>
       </c>
       <c r="S22" t="n">
-        <v>58.40084226665907</v>
+        <v>45.00559625599588</v>
       </c>
       <c r="T22" t="n">
-        <v>45.4915470658088</v>
+        <v>70.28532149200475</v>
       </c>
       <c r="U22" t="n">
-        <v>43.62611692702677</v>
+        <v>26.96383826312703</v>
       </c>
       <c r="V22" t="n">
-        <v>12.24905873096776</v>
+        <v>46.4508371881512</v>
       </c>
       <c r="W22" t="n">
-        <v>105.8717522231013</v>
+        <v>156.6183101652562</v>
       </c>
       <c r="X22" t="n">
-        <v>83.89780296455851</v>
+        <v>79.36413593189145</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.64241896379055</v>
+        <v>23.22045398062382</v>
       </c>
       <c r="Z22" t="n">
-        <v>43.37862574334994</v>
+        <v>106.9325540767585</v>
       </c>
       <c r="AA22" t="n">
-        <v>49.84259616967962</v>
+        <v>23.93767044431165</v>
       </c>
       <c r="AB22" t="n">
-        <v>94.97702841406689</v>
+        <v>61.20743574697371</v>
       </c>
       <c r="AC22" t="n">
-        <v>82.46092926555467</v>
+        <v>116.278056319365</v>
       </c>
       <c r="AD22" t="n">
-        <v>49.35878290579812</v>
+        <v>98.08365941124147</v>
       </c>
       <c r="AE22" t="n">
-        <v>66.00110872566812</v>
+        <v>112.8577978820661</v>
       </c>
       <c r="AF22" t="n">
-        <v>74.29270789273302</v>
+        <v>70.37802619520292</v>
       </c>
       <c r="AG22" t="n">
-        <v>88.64205343310483</v>
+        <v>42.25779000799392</v>
       </c>
       <c r="AH22" t="n">
-        <v>60.59761920713258</v>
+        <v>38.22093591824234</v>
       </c>
       <c r="AI22" t="n">
-        <v>105.2050795801245</v>
+        <v>66.81591729147301</v>
       </c>
       <c r="AJ22" t="n">
-        <v>224.8867722625821</v>
+        <v>72.83418281553358</v>
       </c>
       <c r="AK22" t="n">
-        <v>38.43152755269932</v>
+        <v>60.56732224161701</v>
       </c>
       <c r="AL22" t="n">
-        <v>25.93078221844996</v>
+        <v>17.5976690758057</v>
       </c>
       <c r="AM22" t="n">
-        <v>21.75836207090648</v>
+        <v>16.86120377037784</v>
       </c>
       <c r="AN22" t="n">
-        <v>48.80901197601236</v>
+        <v>31.42237049872054</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.394120264665743</v>
+        <v>23.61688371039781</v>
       </c>
       <c r="AP22" t="n">
-        <v>13.46401956938003</v>
+        <v>11.80549444285964</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16.85431495963429</v>
+        <v>8.037879600246903</v>
       </c>
       <c r="AR22" t="n">
-        <v>15.75567797837729</v>
+        <v>10.96900358368277</v>
       </c>
       <c r="AS22" t="n">
-        <v>29.79685097729034</v>
+        <v>43.96352411765746</v>
       </c>
       <c r="AT22" t="n">
-        <v>6.971875048966568</v>
+        <v>14.52075561005215</v>
       </c>
       <c r="AU22" t="n">
-        <v>5.788485176356271</v>
+        <v>26.92784788870631</v>
       </c>
       <c r="AV22" t="n">
-        <v>16.99718831361114</v>
+        <v>19.63370572530153</v>
       </c>
       <c r="AW22" t="n">
-        <v>2.612145606419693</v>
+        <v>27.0064322622228</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.770919354352168</v>
+        <v>14.97051114635138</v>
       </c>
     </row>
     <row r="23">
@@ -3888,145 +3888,145 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>14.19265771969476</v>
       </c>
       <c r="E23" t="n">
-        <v>49.24416169180923</v>
+        <v>44.61039655855696</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>76.21046088992495</v>
       </c>
       <c r="G23" t="n">
-        <v>5.467979276524208</v>
+        <v>16.08120443244574</v>
       </c>
       <c r="H23" t="n">
-        <v>47.47557673508371</v>
+        <v>27.98742634621155</v>
       </c>
       <c r="I23" t="n">
-        <v>26.09904171299243</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>41.62145238130475</v>
+        <v>21.81191517834046</v>
       </c>
       <c r="K23" t="n">
-        <v>15.51220399869172</v>
+        <v>17.29863597292067</v>
       </c>
       <c r="L23" t="n">
-        <v>34.65562573550771</v>
+        <v>27.95270359511739</v>
       </c>
       <c r="M23" t="n">
-        <v>62.28979855876021</v>
+        <v>12.80003588811482</v>
       </c>
       <c r="N23" t="n">
-        <v>74.08001663834669</v>
+        <v>31.85008331867807</v>
       </c>
       <c r="O23" t="n">
-        <v>83.45523210382827</v>
+        <v>112.1498594092081</v>
       </c>
       <c r="P23" t="n">
-        <v>116.047951873535</v>
+        <v>10.24837081969067</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.20749432405063</v>
+        <v>55.3113500649194</v>
       </c>
       <c r="R23" t="n">
-        <v>61.27610589103755</v>
+        <v>43.85673209149418</v>
       </c>
       <c r="S23" t="n">
-        <v>95.93585086008959</v>
+        <v>12.76977362772925</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>42.68685400530623</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>32.48544547058129</v>
       </c>
       <c r="V23" t="n">
-        <v>52.77167638005523</v>
+        <v>111.0794400155815</v>
       </c>
       <c r="W23" t="n">
-        <v>56.75216316769078</v>
+        <v>91.27345579187464</v>
       </c>
       <c r="X23" t="n">
-        <v>14.60053765755351</v>
+        <v>42.79950491589933</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>63.68903974667879</v>
       </c>
       <c r="Z23" t="n">
-        <v>38.90871815294101</v>
+        <v>43.5392377571142</v>
       </c>
       <c r="AA23" t="n">
-        <v>90.81641186511131</v>
+        <v>30.66795810203869</v>
       </c>
       <c r="AB23" t="n">
-        <v>22.99306287050858</v>
+        <v>41.39319238610288</v>
       </c>
       <c r="AC23" t="n">
-        <v>27.5912299075799</v>
+        <v>37.7038653967308</v>
       </c>
       <c r="AD23" t="n">
-        <v>90.9656196753001</v>
+        <v>151.4922810162975</v>
       </c>
       <c r="AE23" t="n">
-        <v>64.14865676901938</v>
+        <v>26.11375814175966</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.47029689687773</v>
+        <v>3.839270195723262</v>
       </c>
       <c r="AG23" t="n">
-        <v>28.29886910131725</v>
+        <v>34.23515795952847</v>
       </c>
       <c r="AH23" t="n">
-        <v>28.3973793537523</v>
+        <v>66.00730075549703</v>
       </c>
       <c r="AI23" t="n">
-        <v>72.83107575517585</v>
+        <v>51.67538150949179</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32.40550525657598</v>
+        <v>41.17116435435737</v>
       </c>
       <c r="AK23" t="n">
-        <v>6.479164671203065</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>44.21994368004561</v>
+        <v>40.60943315781566</v>
       </c>
       <c r="AM23" t="n">
-        <v>44.77976281970125</v>
+        <v>43.19198846976667</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.364962510400316</v>
+        <v>11.02149237298407</v>
       </c>
       <c r="AO23" t="n">
-        <v>15.323936701586</v>
+        <v>7.661917120306988</v>
       </c>
       <c r="AP23" t="n">
-        <v>24.1258822109758</v>
+        <v>29.82305571830058</v>
       </c>
       <c r="AQ23" t="n">
-        <v>11.98565706693489</v>
+        <v>8.844217049381363</v>
       </c>
       <c r="AR23" t="n">
-        <v>8.63619837259176</v>
+        <v>4.585861138782157</v>
       </c>
       <c r="AS23" t="n">
-        <v>33.53301674984498</v>
+        <v>32.28321496034985</v>
       </c>
       <c r="AT23" t="n">
-        <v>5.219247125195984</v>
+        <v>36.36465860688678</v>
       </c>
       <c r="AU23" t="n">
-        <v>19.2850468529524</v>
+        <v>30.28563168621135</v>
       </c>
       <c r="AV23" t="n">
-        <v>19.06768710510476</v>
+        <v>20.07713423617378</v>
       </c>
       <c r="AW23" t="n">
-        <v>13.52322815646592</v>
+        <v>10.31245111913469</v>
       </c>
       <c r="AX23" t="n">
-        <v>29.8764409298809</v>
+        <v>35.87954616232039</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9.175334793874676</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>37.7933682819103</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.584107170583714</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6.223538176658018</v>
       </c>
       <c r="H24" t="n">
-        <v>4.961748234637547</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>11.79514708094303</v>
+        <v>19.26457595862716</v>
       </c>
       <c r="J24" t="n">
-        <v>18.40907564503361</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>11.27360678200519</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>57.69878026522559</v>
+        <v>8.250460426973858</v>
       </c>
       <c r="N24" t="n">
-        <v>31.16506445546037</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>29.21144824678933</v>
+        <v>34.39948494888804</v>
       </c>
       <c r="P24" t="n">
-        <v>19.33125507070772</v>
+        <v>26.43391602709193</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.4913144123322</v>
+        <v>26.34156063088583</v>
       </c>
       <c r="R24" t="n">
-        <v>47.93669325444887</v>
+        <v>28.35232561338079</v>
       </c>
       <c r="S24" t="n">
-        <v>12.3253445968116</v>
+        <v>24.91842609922418</v>
       </c>
       <c r="T24" t="n">
-        <v>19.45760455206006</v>
+        <v>23.45175070745677</v>
       </c>
       <c r="U24" t="n">
-        <v>39.41392932299937</v>
+        <v>38.57318144584953</v>
       </c>
       <c r="V24" t="n">
-        <v>36.03695162726158</v>
+        <v>21.56072486718352</v>
       </c>
       <c r="W24" t="n">
-        <v>19.35157854291462</v>
+        <v>14.809711942458</v>
       </c>
       <c r="X24" t="n">
-        <v>32.63541068879891</v>
+        <v>32.19672909158103</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.22699150731704</v>
+        <v>23.90601573278133</v>
       </c>
       <c r="Z24" t="n">
-        <v>10.00675762227681</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>15.74571913348354</v>
+        <v>6.68102831857384</v>
       </c>
       <c r="AB24" t="n">
-        <v>29.65933640597794</v>
+        <v>6.506056968839761</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.443031409154717</v>
+        <v>1.534091815776798</v>
       </c>
       <c r="AD24" t="n">
-        <v>21.20594442327573</v>
+        <v>13.82903297663344</v>
       </c>
       <c r="AE24" t="n">
-        <v>14.97432507258766</v>
+        <v>11.63111110629923</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.79532121740822</v>
+        <v>9.889349140578975</v>
       </c>
       <c r="AG24" t="n">
-        <v>22.75810186699053</v>
+        <v>6.838598639506233</v>
       </c>
       <c r="AH24" t="n">
-        <v>11.48965357743232</v>
+        <v>15.94099256521409</v>
       </c>
       <c r="AI24" t="n">
-        <v>15.06901166328343</v>
+        <v>24.7385480045996</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21.71121328731701</v>
+        <v>16.18284120935549</v>
       </c>
       <c r="AK24" t="n">
-        <v>2.66438571860316</v>
+        <v>35.97608290182297</v>
       </c>
       <c r="AL24" t="n">
-        <v>5.229374245867582</v>
+        <v>11.14926547318899</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.57068475849435</v>
+        <v>1.625068376202168</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.711494305980083</v>
+        <v>4.264515547953303</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.44867426605176</v>
+        <v>1.064895727413354</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.302408042842985</v>
+        <v>4.775945921635095</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.931065857655771</v>
+        <v>4.817936543914558</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.452055451421849</v>
+        <v>9.671060959400219</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>0.8049253329087147</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>3.15547723830784</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.90312760646285</v>
+        <v>1.702683841985515</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>2.114900012497127</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.219649009782072</v>
+        <v>2.033156144527415</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.838114655673464</v>
+        <v>3.12619620517966</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.88738339392029</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.28360872910257</v>
       </c>
       <c r="E25" t="n">
-        <v>2.674989186309431</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.70570673992841</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.648954238481302</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>17.10062539549961</v>
+        <v>1.75032983381592</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09341487245182289</v>
+        <v>30.86402097097334</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>104.8943190975279</v>
       </c>
       <c r="K25" t="n">
-        <v>64.28739530479898</v>
+        <v>34.05233781146874</v>
       </c>
       <c r="L25" t="n">
-        <v>4.104047624192625</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>27.04379923676863</v>
+        <v>174.2917242878985</v>
       </c>
       <c r="N25" t="n">
-        <v>53.23756292292246</v>
+        <v>34.15861546886241</v>
       </c>
       <c r="O25" t="n">
-        <v>48.94997074001485</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>53.12499732843067</v>
+        <v>35.64266607707366</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.46660216575775</v>
+        <v>76.84833372705305</v>
       </c>
       <c r="R25" t="n">
-        <v>47.36482638437819</v>
+        <v>13.3031627147737</v>
       </c>
       <c r="S25" t="n">
-        <v>45.64658346480315</v>
+        <v>1.691207358925697</v>
       </c>
       <c r="T25" t="n">
-        <v>15.5441263583881</v>
+        <v>2.034383260175119</v>
       </c>
       <c r="U25" t="n">
-        <v>45.3561959615933</v>
+        <v>8.032028990931025</v>
       </c>
       <c r="V25" t="n">
-        <v>66.23825992571182</v>
+        <v>35.96846016078305</v>
       </c>
       <c r="W25" t="n">
-        <v>94.22493662975018</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>30.71962389893266</v>
+        <v>7.124743671191038</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.18025469446793</v>
+        <v>39.20819800526945</v>
       </c>
       <c r="Z25" t="n">
-        <v>108.8171565902385</v>
+        <v>9.340201429607067</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.966656635080001</v>
+        <v>4.696665776932517</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.09428834000313</v>
+        <v>25.29208427357275</v>
       </c>
       <c r="AC25" t="n">
-        <v>31.15891977668625</v>
+        <v>3.009049436684354</v>
       </c>
       <c r="AD25" t="n">
-        <v>76.95201609205333</v>
+        <v>13.55478536581285</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.01559061440465</v>
+        <v>2.204742568434331</v>
       </c>
       <c r="AF25" t="n">
-        <v>19.91094876612317</v>
+        <v>15.24574043114112</v>
       </c>
       <c r="AG25" t="n">
-        <v>38.78910824499089</v>
+        <v>12.14019820380333</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.423121182912818</v>
+        <v>19.67525779786911</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.095340705874189</v>
+        <v>7.689379786978912</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>11.56293424929463</v>
       </c>
       <c r="AK25" t="n">
-        <v>11.6039968914387</v>
+        <v>10.12895844198242</v>
       </c>
       <c r="AL25" t="n">
-        <v>4.553839274064867</v>
+        <v>8.061517005384696</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.735449632026636</v>
+        <v>21.37618674696354</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.941784276756499</v>
+        <v>12.08941267500605</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.588671176661303</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>4.786513097204672</v>
+        <v>9.848080657708135</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7.715134977948946</v>
+        <v>15.63708115412184</v>
       </c>
       <c r="AR25" t="n">
-        <v>11.6027872828045</v>
+        <v>0.6266189559574029</v>
       </c>
       <c r="AS25" t="n">
-        <v>6.407576979437644</v>
+        <v>16.06671906113252</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.085886209576129</v>
+        <v>0</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.449049973253597</v>
+        <v>2.899210538765856</v>
       </c>
       <c r="AW25" t="n">
-        <v>8.108458531701109</v>
+        <v>26.61707692660287</v>
       </c>
       <c r="AX25" t="n">
-        <v>7.438345663795769</v>
+        <v>6.054597003179758</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>194.7842399181808</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>38.52759735763576</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>30.51538347558108</v>
       </c>
       <c r="F26" t="n">
-        <v>1.673380346364045</v>
+        <v>46.27275200154088</v>
       </c>
       <c r="G26" t="n">
-        <v>16.90620981283872</v>
+        <v>129.5639368768</v>
       </c>
       <c r="H26" t="n">
-        <v>40.34729808432166</v>
+        <v>48.03637651116273</v>
       </c>
       <c r="I26" t="n">
-        <v>44.78592559343218</v>
+        <v>13.24115800780271</v>
       </c>
       <c r="J26" t="n">
-        <v>101.6576856295025</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>110.5140928522687</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>83.10728132263732</v>
+        <v>96.39872908777684</v>
       </c>
       <c r="M26" t="n">
-        <v>75.69249191424123</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>70.73321420653591</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>37.44679342246849</v>
+        <v>30.23736508956098</v>
       </c>
       <c r="P26" t="n">
-        <v>14.93095754710899</v>
+        <v>92.45016560733494</v>
       </c>
       <c r="Q26" t="n">
-        <v>75.73883010784917</v>
+        <v>69.88200210698008</v>
       </c>
       <c r="R26" t="n">
-        <v>29.37656658854027</v>
+        <v>72.2740099572386</v>
       </c>
       <c r="S26" t="n">
-        <v>41.96752820722411</v>
+        <v>77.86627516170643</v>
       </c>
       <c r="T26" t="n">
-        <v>68.07665040047212</v>
+        <v>69.58873023209172</v>
       </c>
       <c r="U26" t="n">
-        <v>83.33738877664885</v>
+        <v>67.6778260777042</v>
       </c>
       <c r="V26" t="n">
-        <v>76.29529072845386</v>
+        <v>22.9886298889531</v>
       </c>
       <c r="W26" t="n">
-        <v>34.70861963951612</v>
+        <v>94.04476027480443</v>
       </c>
       <c r="X26" t="n">
-        <v>65.08775819409331</v>
+        <v>228.9164082481624</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.15786611819644</v>
+        <v>98.02924321589177</v>
       </c>
       <c r="Z26" t="n">
-        <v>97.26657433329756</v>
+        <v>40.71482499088202</v>
       </c>
       <c r="AA26" t="n">
-        <v>96.03933798062359</v>
+        <v>67.64478791305069</v>
       </c>
       <c r="AB26" t="n">
-        <v>81.3148666526987</v>
+        <v>87.26775223230659</v>
       </c>
       <c r="AC26" t="n">
-        <v>120.0363563090408</v>
+        <v>47.67478681802322</v>
       </c>
       <c r="AD26" t="n">
-        <v>121.8938749380018</v>
+        <v>45.5870707301403</v>
       </c>
       <c r="AE26" t="n">
-        <v>141.9236990095892</v>
+        <v>97.56163159386871</v>
       </c>
       <c r="AF26" t="n">
-        <v>160.9852893392122</v>
+        <v>108.4205465881202</v>
       </c>
       <c r="AG26" t="n">
-        <v>31.43739453535663</v>
+        <v>107.7839026401107</v>
       </c>
       <c r="AH26" t="n">
-        <v>141.3646807574934</v>
+        <v>46.09677739764172</v>
       </c>
       <c r="AI26" t="n">
-        <v>52.81823143285021</v>
+        <v>211.9533652681404</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19.07917981448574</v>
+        <v>236.0662153978807</v>
       </c>
       <c r="AK26" t="n">
-        <v>97.52312472037887</v>
+        <v>35.06738420955226</v>
       </c>
       <c r="AL26" t="n">
-        <v>21.89741363538187</v>
+        <v>73.79009165955733</v>
       </c>
       <c r="AM26" t="n">
-        <v>27.26037475581056</v>
+        <v>47.63283329577144</v>
       </c>
       <c r="AN26" t="n">
-        <v>30.70380736975028</v>
+        <v>60.29462002149661</v>
       </c>
       <c r="AO26" t="n">
-        <v>24.92643124380798</v>
+        <v>7.693380834838528</v>
       </c>
       <c r="AP26" t="n">
-        <v>19.24539435334397</v>
+        <v>32.25973948218915</v>
       </c>
       <c r="AQ26" t="n">
-        <v>31.74213681720591</v>
+        <v>21.81158978321291</v>
       </c>
       <c r="AR26" t="n">
-        <v>24.42329118802664</v>
+        <v>31.74130681770761</v>
       </c>
       <c r="AS26" t="n">
-        <v>9.736459142523323</v>
+        <v>37.30926883942302</v>
       </c>
       <c r="AT26" t="n">
-        <v>28.80043851002444</v>
+        <v>23.54595314958747</v>
       </c>
       <c r="AU26" t="n">
-        <v>25.48066530866595</v>
+        <v>23.40416440384866</v>
       </c>
       <c r="AV26" t="n">
-        <v>30.96915153175185</v>
+        <v>15.23082606806541</v>
       </c>
       <c r="AW26" t="n">
-        <v>9.388161175470051</v>
+        <v>20.78617159171667</v>
       </c>
       <c r="AX26" t="n">
-        <v>11.17692145288632</v>
+        <v>9.909787586385809</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>4.741859450027736</v>
+        <v>0.04948822432748796</v>
       </c>
       <c r="D27" t="n">
-        <v>2.662904351834244</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.376051280879041</v>
+        <v>6.9664597023315</v>
       </c>
       <c r="F27" t="n">
-        <v>1.41917566067602</v>
+        <v>1.982835621675179</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.863702562357095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.424128769394791</v>
+        <v>5.743618359963262</v>
       </c>
       <c r="I27" t="n">
-        <v>10.38291780735935</v>
+        <v>0.8894148394443431</v>
       </c>
       <c r="J27" t="n">
-        <v>5.534807592834765</v>
+        <v>1.284934913639326</v>
       </c>
       <c r="K27" t="n">
-        <v>4.334336642682731</v>
+        <v>6.134852034094843</v>
       </c>
       <c r="L27" t="n">
-        <v>1.534308306651119</v>
+        <v>1.983068751232717</v>
       </c>
       <c r="M27" t="n">
-        <v>1.965078006451368</v>
+        <v>7.179804765157524</v>
       </c>
       <c r="N27" t="n">
-        <v>1.354200296234768</v>
+        <v>3.493577881252098</v>
       </c>
       <c r="O27" t="n">
-        <v>3.082990103295179</v>
+        <v>6.668188220081039</v>
       </c>
       <c r="P27" t="n">
-        <v>4.557853804810232</v>
+        <v>3.283216683350773</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.718405002708784</v>
+        <v>5.405189374853516</v>
       </c>
       <c r="R27" t="n">
-        <v>6.12096611891367</v>
+        <v>2.681290295055435</v>
       </c>
       <c r="S27" t="n">
-        <v>11.43194023753608</v>
+        <v>2.988491587293872</v>
       </c>
       <c r="T27" t="n">
-        <v>4.338650920617081</v>
+        <v>2.510816734699343</v>
       </c>
       <c r="U27" t="n">
-        <v>1.440437236392449</v>
+        <v>13.18145298796959</v>
       </c>
       <c r="V27" t="n">
-        <v>13.15045942542445</v>
+        <v>1.589652861101145</v>
       </c>
       <c r="W27" t="n">
-        <v>3.154814162234754</v>
+        <v>7.734390279817204</v>
       </c>
       <c r="X27" t="n">
-        <v>4.359453074618797</v>
+        <v>2.404428774817649</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.230958519981617</v>
+        <v>11.57968084139646</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.826369101657806</v>
+        <v>5.670200555377063</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.297467164794091</v>
+        <v>8.901011014494838</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.287926789102654</v>
+        <v>5.084193280935659</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.55285237539564</v>
+        <v>5.946985665588371</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.617537736496925</v>
+        <v>4.797492650953668</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.880381179777356</v>
+        <v>6.257436086582778</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.783176244348372</v>
+        <v>6.958038341671744</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.831341415701029</v>
+        <v>6.909830996142323</v>
       </c>
       <c r="AH27" t="n">
-        <v>3.385011634550364</v>
+        <v>2.510635806002378</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.764241630554845</v>
+        <v>4.443465185058017</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7.961974360446875</v>
+        <v>4.693623405760776</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.092112573155557</v>
+        <v>9.586499818701355</v>
       </c>
       <c r="AL27" t="n">
-        <v>4.410481243259436</v>
+        <v>5.505823199495566</v>
       </c>
       <c r="AM27" t="n">
-        <v>2.012556468607151</v>
+        <v>3.920132708272139</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.501922187492421</v>
+        <v>2.7550545833602</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.62817751158695</v>
+        <v>5.07341978216285</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.272068474990422</v>
+        <v>5.722949676106646</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.67941578688538</v>
+        <v>3.023167780665861</v>
       </c>
       <c r="AR27" t="n">
-        <v>5.678475533112363</v>
+        <v>4.870391304847532</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>3.159464180300938</v>
       </c>
       <c r="AT27" t="n">
-        <v>5.149073955871611</v>
+        <v>3.570682602227207</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.290133109547117</v>
+        <v>0.002612243376423073</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.500735136091689</v>
+        <v>3.764525388791558</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.738314381920919</v>
+        <v>3.25236087402374</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.708445199304688</v>
+        <v>6.205763577022402</v>
       </c>
     </row>
     <row r="28">
@@ -4645,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>195.3902722193234</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4654,139 +4654,139 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>26.25135275430142</v>
       </c>
       <c r="G28" t="n">
-        <v>97.81913182584978</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>27.66390287671202</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>21.09713428917956</v>
+        <v>24.12692313833888</v>
       </c>
       <c r="K28" t="n">
-        <v>5.046444361555647</v>
+        <v>15.12774704766344</v>
       </c>
       <c r="L28" t="n">
-        <v>18.11389348671343</v>
+        <v>56.1417338913903</v>
       </c>
       <c r="M28" t="n">
-        <v>117.5498367549377</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>101.2887554237705</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>67.9730507913973</v>
+        <v>78.12161285809609</v>
       </c>
       <c r="P28" t="n">
-        <v>33.010389752716</v>
+        <v>56.3929582911761</v>
       </c>
       <c r="Q28" t="n">
-        <v>33.31554690414787</v>
+        <v>31.36265564993789</v>
       </c>
       <c r="R28" t="n">
-        <v>85.39350716834588</v>
+        <v>47.59238727386604</v>
       </c>
       <c r="S28" t="n">
-        <v>23.54081492001872</v>
+        <v>30.83890430595389</v>
       </c>
       <c r="T28" t="n">
-        <v>39.26064364724544</v>
+        <v>139.1572621720173</v>
       </c>
       <c r="U28" t="n">
-        <v>55.13168786373965</v>
+        <v>32.98412650677049</v>
       </c>
       <c r="V28" t="n">
-        <v>83.08481212135774</v>
+        <v>53.48489492650754</v>
       </c>
       <c r="W28" t="n">
-        <v>72.43014460333058</v>
+        <v>68.72819614801554</v>
       </c>
       <c r="X28" t="n">
-        <v>37.97090702932934</v>
+        <v>24.50347465529183</v>
       </c>
       <c r="Y28" t="n">
-        <v>183.6586786339114</v>
+        <v>114.4819961306345</v>
       </c>
       <c r="Z28" t="n">
-        <v>10.60187372183242</v>
+        <v>58.69947395299831</v>
       </c>
       <c r="AA28" t="n">
-        <v>64.96735897645583</v>
+        <v>46.09924889146001</v>
       </c>
       <c r="AB28" t="n">
-        <v>84.94092164250023</v>
+        <v>30.33608886919023</v>
       </c>
       <c r="AC28" t="n">
-        <v>111.8773151507734</v>
+        <v>104.933399901396</v>
       </c>
       <c r="AD28" t="n">
-        <v>59.9835562322527</v>
+        <v>77.02364035624947</v>
       </c>
       <c r="AE28" t="n">
-        <v>147.4996625882969</v>
+        <v>95.35417118335495</v>
       </c>
       <c r="AF28" t="n">
-        <v>53.74959923263487</v>
+        <v>43.12967292385128</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.52609421352474</v>
+        <v>79.73786601131236</v>
       </c>
       <c r="AH28" t="n">
-        <v>114.0108772553659</v>
+        <v>89.07912005103209</v>
       </c>
       <c r="AI28" t="n">
-        <v>25.87017560438982</v>
+        <v>39.59527604157014</v>
       </c>
       <c r="AJ28" t="n">
-        <v>59.33675216110927</v>
+        <v>103.6280677007064</v>
       </c>
       <c r="AK28" t="n">
-        <v>31.77938070657278</v>
+        <v>76.75289069685269</v>
       </c>
       <c r="AL28" t="n">
-        <v>18.63074581164434</v>
+        <v>20.55450211600355</v>
       </c>
       <c r="AM28" t="n">
-        <v>58.54663638612958</v>
+        <v>12.77509766745973</v>
       </c>
       <c r="AN28" t="n">
-        <v>37.48154522608637</v>
+        <v>20.92764618988331</v>
       </c>
       <c r="AO28" t="n">
-        <v>13.78402344604067</v>
+        <v>12.50985691469952</v>
       </c>
       <c r="AP28" t="n">
-        <v>11.17308174909417</v>
+        <v>18.99887007267654</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20.73005786036532</v>
+        <v>20.34551470056656</v>
       </c>
       <c r="AR28" t="n">
-        <v>9.578550646058716</v>
+        <v>15.52057127254331</v>
       </c>
       <c r="AS28" t="n">
-        <v>16.84783860980178</v>
+        <v>10.35139732561545</v>
       </c>
       <c r="AT28" t="n">
-        <v>15.20832282254924</v>
+        <v>22.06977067019447</v>
       </c>
       <c r="AU28" t="n">
-        <v>15.22134393202729</v>
+        <v>20.65362374292633</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.91026004593396</v>
+        <v>5.172227897865799</v>
       </c>
       <c r="AW28" t="n">
-        <v>6.238487694782894</v>
+        <v>11.20244331560511</v>
       </c>
       <c r="AX28" t="n">
-        <v>10.36045784146833</v>
+        <v>47.0075745208733</v>
       </c>
     </row>
     <row r="29">
@@ -4800,145 +4800,145 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>13.95868469355874</v>
+        <v>27.58834257877136</v>
       </c>
       <c r="E29" t="n">
-        <v>27.25651633955103</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>64.38333536081159</v>
       </c>
       <c r="G29" t="n">
-        <v>29.83917349795809</v>
+        <v>10.65193892337744</v>
       </c>
       <c r="H29" t="n">
-        <v>15.09718750960698</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.8190722916849</v>
+        <v>10.05569455252359</v>
       </c>
       <c r="J29" t="n">
-        <v>3.187641771458161</v>
+        <v>19.06365219851007</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>45.28157530241361</v>
       </c>
       <c r="L29" t="n">
-        <v>44.98668653075899</v>
+        <v>48.49621179615764</v>
       </c>
       <c r="M29" t="n">
-        <v>69.53162971515152</v>
+        <v>7.894242739397411</v>
       </c>
       <c r="N29" t="n">
-        <v>2.232701955121258</v>
+        <v>45.41222029638374</v>
       </c>
       <c r="O29" t="n">
-        <v>56.89984948729319</v>
+        <v>14.54757024923457</v>
       </c>
       <c r="P29" t="n">
-        <v>73.69550216930178</v>
+        <v>27.52389106503087</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.24961446210695</v>
+        <v>34.88925525518089</v>
       </c>
       <c r="R29" t="n">
-        <v>227.900447694921</v>
+        <v>26.75011186783365</v>
       </c>
       <c r="S29" t="n">
-        <v>35.18668670394126</v>
+        <v>94.46152499045532</v>
       </c>
       <c r="T29" t="n">
-        <v>23.57189817772441</v>
+        <v>29.8017828217729</v>
       </c>
       <c r="U29" t="n">
-        <v>62.30469916319575</v>
+        <v>22.87059186591617</v>
       </c>
       <c r="V29" t="n">
-        <v>28.79566088097317</v>
+        <v>39.36485204931111</v>
       </c>
       <c r="W29" t="n">
-        <v>105.3381637262555</v>
+        <v>4.751019071626727</v>
       </c>
       <c r="X29" t="n">
-        <v>42.28382925361668</v>
+        <v>24.71837951390331</v>
       </c>
       <c r="Y29" t="n">
-        <v>34.16275849986607</v>
+        <v>96.36367838604619</v>
       </c>
       <c r="Z29" t="n">
-        <v>47.21112782100305</v>
+        <v>15.51245805076392</v>
       </c>
       <c r="AA29" t="n">
-        <v>10.6157191885845</v>
+        <v>109.540996543311</v>
       </c>
       <c r="AB29" t="n">
-        <v>23.05329175339027</v>
+        <v>19.10049947570525</v>
       </c>
       <c r="AC29" t="n">
-        <v>41.31012840848841</v>
+        <v>0.03686061946852616</v>
       </c>
       <c r="AD29" t="n">
-        <v>53.4495762391592</v>
+        <v>52.58800939541665</v>
       </c>
       <c r="AE29" t="n">
-        <v>21.42526695029558</v>
+        <v>49.20237724680847</v>
       </c>
       <c r="AF29" t="n">
-        <v>23.71961612535425</v>
+        <v>22.40725693325558</v>
       </c>
       <c r="AG29" t="n">
-        <v>24.62458892721378</v>
+        <v>9.285939381909817</v>
       </c>
       <c r="AH29" t="n">
-        <v>47.64222493745645</v>
+        <v>21.59194026389944</v>
       </c>
       <c r="AI29" t="n">
-        <v>15.71026602077641</v>
+        <v>27.78717493413234</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19.93941892792236</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>25.33954369650879</v>
+        <v>37.3256024981643</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.79830941951805</v>
+        <v>29.55828608497916</v>
       </c>
       <c r="AM29" t="n">
-        <v>7.429364749801684</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>13.592875868461</v>
+        <v>16.97353751474813</v>
       </c>
       <c r="AO29" t="n">
-        <v>32.32235554561245</v>
+        <v>29.5800176464578</v>
       </c>
       <c r="AP29" t="n">
-        <v>27.70438674851663</v>
+        <v>34.12050337472257</v>
       </c>
       <c r="AQ29" t="n">
-        <v>22.53685677819094</v>
+        <v>5.721075463048455</v>
       </c>
       <c r="AR29" t="n">
-        <v>18.81363509567926</v>
+        <v>26.59227849186338</v>
       </c>
       <c r="AS29" t="n">
-        <v>21.92577090305818</v>
+        <v>28.24860059889736</v>
       </c>
       <c r="AT29" t="n">
-        <v>27.32750886138237</v>
+        <v>19.11240680341541</v>
       </c>
       <c r="AU29" t="n">
-        <v>22.88132101622182</v>
+        <v>18.41250377025771</v>
       </c>
       <c r="AV29" t="n">
-        <v>37.4205448819779</v>
+        <v>18.90414004903091</v>
       </c>
       <c r="AW29" t="n">
-        <v>8.193658147988641</v>
+        <v>32.2983874723941</v>
       </c>
       <c r="AX29" t="n">
-        <v>17.93330655045662</v>
+        <v>2.82655103679747</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.12957641565295</v>
+        <v>3.904613132404284</v>
       </c>
       <c r="D30" t="n">
-        <v>10.98328182317902</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>48.84082929869763</v>
       </c>
       <c r="F30" t="n">
-        <v>2.980284441600591</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4.454109932206897</v>
       </c>
       <c r="H30" t="n">
-        <v>61.53681286208406</v>
+        <v>26.2304319558954</v>
       </c>
       <c r="I30" t="n">
-        <v>13.2348239896175</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.923656976869</v>
+        <v>2.575544095483548</v>
       </c>
       <c r="K30" t="n">
-        <v>46.20589963681555</v>
+        <v>13.35359834836558</v>
       </c>
       <c r="L30" t="n">
-        <v>9.741303242498876</v>
+        <v>6.553653063372675</v>
       </c>
       <c r="M30" t="n">
-        <v>33.62184070755365</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>27.61289092098303</v>
+        <v>8.809639564479529</v>
       </c>
       <c r="O30" t="n">
-        <v>10.85087973561872</v>
+        <v>5.148601302782541</v>
       </c>
       <c r="P30" t="n">
-        <v>11.69032157802398</v>
+        <v>10.17991310063975</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.51853469490117</v>
+        <v>37.50031028622804</v>
       </c>
       <c r="R30" t="n">
-        <v>79.85842527011991</v>
+        <v>40.61205988525919</v>
       </c>
       <c r="S30" t="n">
-        <v>17.31069181005206</v>
+        <v>6.267276576305181</v>
       </c>
       <c r="T30" t="n">
-        <v>134.0271461049065</v>
+        <v>15.98456278399546</v>
       </c>
       <c r="U30" t="n">
-        <v>34.51257724459577</v>
+        <v>45.4714660175576</v>
       </c>
       <c r="V30" t="n">
-        <v>131.4231560478714</v>
+        <v>35.47176793682117</v>
       </c>
       <c r="W30" t="n">
-        <v>7.975056601440421</v>
+        <v>32.45072827783805</v>
       </c>
       <c r="X30" t="n">
-        <v>38.39337242840501</v>
+        <v>16.7503705934966</v>
       </c>
       <c r="Y30" t="n">
-        <v>47.76369187301353</v>
+        <v>13.39416024732642</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.4065397292815</v>
+        <v>25.57994573316194</v>
       </c>
       <c r="AA30" t="n">
-        <v>13.34639547217864</v>
+        <v>14.01233522284569</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.20493031746895</v>
+        <v>5.021449532634328</v>
       </c>
       <c r="AC30" t="n">
-        <v>14.35803984219837</v>
+        <v>10.48590230161176</v>
       </c>
       <c r="AD30" t="n">
-        <v>11.3320688848999</v>
+        <v>11.44521220464479</v>
       </c>
       <c r="AE30" t="n">
-        <v>15.13270141470191</v>
+        <v>5.619459843605781</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.780981442665</v>
+        <v>13.61246209126477</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.90332000939654</v>
+        <v>2.733817342701565</v>
       </c>
       <c r="AH30" t="n">
-        <v>23.61497600556948</v>
+        <v>49.60735629929517</v>
       </c>
       <c r="AI30" t="n">
-        <v>13.66266528331761</v>
+        <v>9.686502053051663</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5.757953420379655</v>
+        <v>5.779565849059755</v>
       </c>
       <c r="AK30" t="n">
-        <v>7.279024262523541</v>
+        <v>15.11046585260225</v>
       </c>
       <c r="AL30" t="n">
-        <v>3.421815672845933</v>
+        <v>13.15399183814916</v>
       </c>
       <c r="AM30" t="n">
-        <v>6.740637121559023</v>
+        <v>3.865242202691776</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.025181896783208</v>
+        <v>1.366739877081441</v>
       </c>
       <c r="AO30" t="n">
-        <v>2.617663679784544</v>
+        <v>2.878431137645312</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.032383151520937</v>
+        <v>3.70692445476294</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.703040765715999</v>
+        <v>3.830191442053332</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.653893801704853</v>
+        <v>5.244420532844035</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.620538179482488</v>
+        <v>4.811726271806291</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.933064789705659</v>
+        <v>6.872081239435147</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.172582926328414</v>
+        <v>4.338776968139157</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.9536168614567669</v>
+        <v>1.481149564027151</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.519240403821992</v>
+        <v>1.283359409930378</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.6472785924516251</v>
+        <v>1.128269078162447</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4.188813037183822</v>
       </c>
       <c r="D31" t="n">
-        <v>6.092780287246706</v>
+        <v>4.18334574917131</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>22.79800450536771</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.38866848863563</v>
       </c>
       <c r="H31" t="n">
-        <v>17.6759475498119</v>
+        <v>18.35820951298878</v>
       </c>
       <c r="I31" t="n">
-        <v>44.94391078549201</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.202768811166591</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>25.08161441787762</v>
+        <v>7.651781421391775</v>
       </c>
       <c r="L31" t="n">
-        <v>22.65297088929991</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>109.8209942478651</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>23.01787412802103</v>
+        <v>7.656431381660456</v>
       </c>
       <c r="O31" t="n">
-        <v>51.99756443346417</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39.70152893610535</v>
+        <v>34.01006057302467</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.77849886607002</v>
+        <v>2.872356269560091</v>
       </c>
       <c r="R31" t="n">
-        <v>32.05002930364343</v>
+        <v>121.0705201224306</v>
       </c>
       <c r="S31" t="n">
-        <v>6.688795390557303</v>
+        <v>7.486285219515805</v>
       </c>
       <c r="T31" t="n">
-        <v>23.8842267910164</v>
+        <v>4.14788232907483</v>
       </c>
       <c r="U31" t="n">
-        <v>19.57264489287393</v>
+        <v>67.24075919084787</v>
       </c>
       <c r="V31" t="n">
-        <v>51.96069053627094</v>
+        <v>14.61698410456518</v>
       </c>
       <c r="W31" t="n">
-        <v>25.90143886418459</v>
+        <v>75.49025848262843</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>13.89607950948686</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.415415983189177</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>41.48736974510118</v>
+        <v>38.67469292072198</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.519562417033471</v>
+        <v>3.871984131777531</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>8.130901325897419</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.837811448040045</v>
+        <v>4.153471641178307</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.929854511907129</v>
+        <v>14.29459568013465</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.790062676740589</v>
+        <v>5.080831059923249</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.06674711150073342</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>7.899277877358121</v>
+        <v>0.3823975119421342</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.370716414933467</v>
+        <v>13.61194443699331</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.586775734032034</v>
+        <v>6.048488871079087</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.04929398374511</v>
+        <v>4.812261945413848</v>
       </c>
       <c r="AK31" t="n">
-        <v>11.09321372882684</v>
+        <v>37.15556802743259</v>
       </c>
       <c r="AL31" t="n">
-        <v>10.97822183831493</v>
+        <v>8.194569221786328</v>
       </c>
       <c r="AM31" t="n">
-        <v>9.050919328479605</v>
+        <v>13.51385287689088</v>
       </c>
       <c r="AN31" t="n">
-        <v>1.347055288178515</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>11.18153517792672</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.293822927316551</v>
+        <v>1.722297932478456</v>
       </c>
       <c r="AQ31" t="n">
-        <v>8.905617290356515</v>
+        <v>22.38461787431701</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>6.450779350434733</v>
       </c>
       <c r="AS31" t="n">
-        <v>17.31863541185327</v>
+        <v>3.313569688063413</v>
       </c>
       <c r="AT31" t="n">
-        <v>71.20089010308727</v>
+        <v>4.407899061967937</v>
       </c>
       <c r="AU31" t="n">
-        <v>9.556093252718732</v>
+        <v>12.15883408747017</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>6.097367488147512</v>
       </c>
       <c r="AW31" t="n">
-        <v>4.588418016479682</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>2.950121855379768</v>
+        <v>14.70605682141099</v>
       </c>
     </row>
   </sheetData>
